--- a/References/Templates/Web MockUp/Doanh Nghiệp.xlsx
+++ b/References/Templates/Web MockUp/Doanh Nghiệp.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="106">
   <si>
     <t>Logo</t>
   </si>
@@ -36,7 +36,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -46,7 +46,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -57,7 +57,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -254,7 +254,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -264,7 +264,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -334,6 +334,78 @@
   <si>
     <t>Logo công ty</t>
   </si>
+  <si>
+    <t>Bãi đỗ xe của doanh nghiệp :</t>
+  </si>
+  <si>
+    <t>Tên bãi đỗ xe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Địa chỉ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dung tích chứa </t>
+  </si>
+  <si>
+    <t>Khu đô thị mới Hacinco</t>
+  </si>
+  <si>
+    <t>Khu đô thị mới Ciputra</t>
+  </si>
+  <si>
+    <t>70 xe</t>
+  </si>
+  <si>
+    <t>Bảng giá kinh doanh của hãng :</t>
+  </si>
+  <si>
+    <t>Giá cước</t>
+  </si>
+  <si>
+    <t>Giá mở cửa</t>
+  </si>
+  <si>
+    <t>Giá tiếp theo</t>
+  </si>
+  <si>
+    <t>Giá từ km 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giá chờ </t>
+  </si>
+  <si>
+    <t>Xe 5 chỗ</t>
+  </si>
+  <si>
+    <t>Xe 8 chỗ</t>
+  </si>
+  <si>
+    <t>Sửa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thay đổi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lưu lại </t>
+  </si>
+  <si>
+    <t>Mã số thuế :</t>
+  </si>
+  <si>
+    <t>Tài khoản ngân hàng :</t>
+  </si>
+  <si>
+    <t>thông tin doanh nghiệp được quản lí bởi nhân viên đại diện công ty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">có thể thêm mới các bãi đỗ xe </t>
+  </si>
+  <si>
+    <t>thay đổi giá của toàn bộ doanh nghiệp</t>
+  </si>
+  <si>
+    <t>các trạng thái các button của phần thông tin cơ bản doanh nghiệp tương tự như thông tin của khách hàng/lái xe</t>
+  </si>
 </sst>
 </file>
 
@@ -343,14 +415,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -358,7 +430,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -366,7 +438,7 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -374,7 +446,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -382,14 +454,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -714,7 +786,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -765,6 +837,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -801,23 +923,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -827,120 +932,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -961,23 +959,88 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1004,6 +1067,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1014,6 +1101,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1111,7 +1201,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1146,7 +1236,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1358,55 +1448,55 @@
   <dimension ref="B1:BG48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AW23" sqref="AW23"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="3.7109375" style="2"/>
+    <col min="1" max="16384" width="3.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+    <row r="2" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="32" t="s">
+      <c r="C2" s="67"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="34"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="68"/>
       <c r="AF2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1438,37 +1528,37 @@
       <c r="BF2" s="6"/>
       <c r="BG2" s="6"/>
     </row>
-    <row r="3" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="37"/>
+    <row r="3" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="70"/>
+      <c r="AE3" s="71"/>
       <c r="AF3" s="7" t="s">
         <v>3</v>
       </c>
@@ -1500,37 +1590,37 @@
       <c r="BF3" s="6"/>
       <c r="BG3" s="6"/>
     </row>
-    <row r="4" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="40"/>
+    <row r="4" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="73"/>
+      <c r="AA4" s="73"/>
+      <c r="AB4" s="73"/>
+      <c r="AC4" s="73"/>
+      <c r="AD4" s="73"/>
+      <c r="AE4" s="74"/>
       <c r="AF4" s="9"/>
       <c r="AG4" s="10"/>
       <c r="AH4" s="10"/>
@@ -1550,7 +1640,7 @@
       <c r="AV4" s="1"/>
       <c r="AW4" s="1"/>
     </row>
-    <row r="5" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1600,53 +1690,53 @@
       <c r="AV5" s="1"/>
       <c r="AW5" s="1"/>
     </row>
-    <row r="6" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="41" t="s">
+    <row r="6" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44" t="s">
+      <c r="C6" s="76"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="44" t="s">
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="44" t="s">
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="44" t="s">
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="44" t="s">
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="45"/>
-      <c r="AB6" s="45"/>
-      <c r="AC6" s="45"/>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="44" t="s">
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="64"/>
+      <c r="AC6" s="64"/>
+      <c r="AD6" s="65"/>
+      <c r="AE6" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="AF6" s="45"/>
-      <c r="AG6" s="46"/>
+      <c r="AF6" s="64"/>
+      <c r="AG6" s="65"/>
       <c r="AH6" s="12"/>
       <c r="AI6" s="12"/>
       <c r="AJ6" s="12"/>
@@ -1656,7 +1746,7 @@
       <c r="AN6" s="12"/>
       <c r="AO6" s="13"/>
     </row>
-    <row r="7" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1693,25 +1783,25 @@
       <c r="AI7" s="1"/>
       <c r="AO7" s="14"/>
     </row>
-    <row r="8" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="49"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="34"/>
       <c r="T8" s="31"/>
       <c r="U8" s="31"/>
       <c r="V8" s="31" t="s">
@@ -1737,11 +1827,11 @@
       <c r="AN8" s="31"/>
       <c r="AO8" s="14"/>
     </row>
-    <row r="9" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
-      <c r="E9" s="50"/>
+      <c r="E9" s="35"/>
       <c r="F9" s="31"/>
       <c r="G9" s="31"/>
       <c r="H9" s="31"/>
@@ -1755,7 +1845,7 @@
       <c r="P9" s="31"/>
       <c r="Q9" s="31"/>
       <c r="R9" s="31"/>
-      <c r="S9" s="51"/>
+      <c r="S9" s="36"/>
       <c r="T9" s="31"/>
       <c r="U9" s="31"/>
       <c r="V9" s="31"/>
@@ -1767,25 +1857,25 @@
       <c r="Z9" s="31"/>
       <c r="AA9" s="31"/>
       <c r="AB9" s="31"/>
-      <c r="AC9" s="58"/>
-      <c r="AD9" s="59"/>
-      <c r="AE9" s="59"/>
-      <c r="AF9" s="59"/>
-      <c r="AG9" s="59"/>
-      <c r="AH9" s="59"/>
-      <c r="AI9" s="59"/>
-      <c r="AJ9" s="59"/>
-      <c r="AK9" s="60"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="41"/>
+      <c r="AE9" s="41"/>
+      <c r="AF9" s="41"/>
+      <c r="AG9" s="41"/>
+      <c r="AH9" s="41"/>
+      <c r="AI9" s="41"/>
+      <c r="AJ9" s="41"/>
+      <c r="AK9" s="42"/>
       <c r="AL9" s="31"/>
       <c r="AM9" s="31"/>
       <c r="AN9" s="31"/>
       <c r="AO9" s="14"/>
     </row>
-    <row r="10" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
-      <c r="E10" s="50"/>
+      <c r="E10" s="35"/>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
@@ -1799,7 +1889,7 @@
       <c r="P10" s="31"/>
       <c r="Q10" s="31"/>
       <c r="R10" s="31"/>
-      <c r="S10" s="51"/>
+      <c r="S10" s="36"/>
       <c r="T10" s="31"/>
       <c r="U10" s="31"/>
       <c r="V10" s="31"/>
@@ -1811,25 +1901,25 @@
       <c r="Z10" s="31"/>
       <c r="AA10" s="31"/>
       <c r="AB10" s="31"/>
-      <c r="AC10" s="58"/>
-      <c r="AD10" s="59"/>
-      <c r="AE10" s="59"/>
-      <c r="AF10" s="59"/>
-      <c r="AG10" s="59"/>
-      <c r="AH10" s="59"/>
-      <c r="AI10" s="59"/>
-      <c r="AJ10" s="59"/>
-      <c r="AK10" s="60"/>
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="41"/>
+      <c r="AE10" s="41"/>
+      <c r="AF10" s="41"/>
+      <c r="AG10" s="41"/>
+      <c r="AH10" s="41"/>
+      <c r="AI10" s="41"/>
+      <c r="AJ10" s="41"/>
+      <c r="AK10" s="42"/>
       <c r="AL10" s="31"/>
       <c r="AM10" s="31"/>
       <c r="AN10" s="31"/>
       <c r="AO10" s="14"/>
     </row>
-    <row r="11" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
-      <c r="E11" s="50"/>
+      <c r="E11" s="35"/>
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
       <c r="H11" s="31"/>
@@ -1843,7 +1933,7 @@
       <c r="P11" s="31"/>
       <c r="Q11" s="31"/>
       <c r="R11" s="31"/>
-      <c r="S11" s="51"/>
+      <c r="S11" s="36"/>
       <c r="T11" s="31"/>
       <c r="U11" s="31"/>
       <c r="V11" s="31"/>
@@ -1855,25 +1945,25 @@
       <c r="Z11" s="31"/>
       <c r="AA11" s="31"/>
       <c r="AB11" s="31"/>
-      <c r="AC11" s="58"/>
-      <c r="AD11" s="59"/>
-      <c r="AE11" s="59"/>
-      <c r="AF11" s="59"/>
-      <c r="AG11" s="59"/>
-      <c r="AH11" s="59"/>
-      <c r="AI11" s="59"/>
-      <c r="AJ11" s="59"/>
-      <c r="AK11" s="60"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="41"/>
+      <c r="AE11" s="41"/>
+      <c r="AF11" s="41"/>
+      <c r="AG11" s="41"/>
+      <c r="AH11" s="41"/>
+      <c r="AI11" s="41"/>
+      <c r="AJ11" s="41"/>
+      <c r="AK11" s="42"/>
       <c r="AL11" s="31"/>
       <c r="AM11" s="31"/>
       <c r="AN11" s="31"/>
       <c r="AO11" s="14"/>
     </row>
-    <row r="12" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
-      <c r="E12" s="50"/>
+      <c r="E12" s="35"/>
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
       <c r="H12" s="31"/>
@@ -1887,7 +1977,7 @@
       <c r="P12" s="31"/>
       <c r="Q12" s="31"/>
       <c r="R12" s="31"/>
-      <c r="S12" s="51"/>
+      <c r="S12" s="36"/>
       <c r="T12" s="31"/>
       <c r="U12" s="31"/>
       <c r="V12" s="31"/>
@@ -1899,25 +1989,25 @@
       <c r="Z12" s="31"/>
       <c r="AA12" s="31"/>
       <c r="AB12" s="31"/>
-      <c r="AC12" s="58"/>
-      <c r="AD12" s="59"/>
-      <c r="AE12" s="59"/>
-      <c r="AF12" s="59"/>
-      <c r="AG12" s="59"/>
-      <c r="AH12" s="59"/>
-      <c r="AI12" s="59"/>
-      <c r="AJ12" s="59"/>
-      <c r="AK12" s="60"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="41"/>
+      <c r="AE12" s="41"/>
+      <c r="AF12" s="41"/>
+      <c r="AG12" s="41"/>
+      <c r="AH12" s="41"/>
+      <c r="AI12" s="41"/>
+      <c r="AJ12" s="41"/>
+      <c r="AK12" s="42"/>
       <c r="AL12" s="31"/>
       <c r="AM12" s="31"/>
       <c r="AN12" s="31"/>
       <c r="AO12" s="14"/>
     </row>
-    <row r="13" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
-      <c r="E13" s="50"/>
+      <c r="E13" s="35"/>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
       <c r="H13" s="31"/>
@@ -1931,7 +2021,7 @@
       <c r="P13" s="31"/>
       <c r="Q13" s="31"/>
       <c r="R13" s="31"/>
-      <c r="S13" s="51"/>
+      <c r="S13" s="36"/>
       <c r="T13" s="31"/>
       <c r="U13" s="31"/>
       <c r="V13" s="31"/>
@@ -1943,25 +2033,25 @@
       <c r="Z13" s="31"/>
       <c r="AA13" s="31"/>
       <c r="AB13" s="31"/>
-      <c r="AC13" s="58"/>
-      <c r="AD13" s="59"/>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="59"/>
-      <c r="AG13" s="59"/>
-      <c r="AH13" s="59"/>
-      <c r="AI13" s="59"/>
-      <c r="AJ13" s="59"/>
-      <c r="AK13" s="60"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="41"/>
+      <c r="AE13" s="41"/>
+      <c r="AF13" s="41"/>
+      <c r="AG13" s="41"/>
+      <c r="AH13" s="41"/>
+      <c r="AI13" s="41"/>
+      <c r="AJ13" s="41"/>
+      <c r="AK13" s="42"/>
       <c r="AL13" s="31"/>
       <c r="AM13" s="31"/>
       <c r="AN13" s="31"/>
       <c r="AO13" s="14"/>
     </row>
-    <row r="14" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
-      <c r="E14" s="50"/>
+      <c r="E14" s="35"/>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
@@ -1975,7 +2065,7 @@
       <c r="P14" s="31"/>
       <c r="Q14" s="31"/>
       <c r="R14" s="31"/>
-      <c r="S14" s="51"/>
+      <c r="S14" s="36"/>
       <c r="T14" s="31"/>
       <c r="U14" s="31"/>
       <c r="V14" s="31"/>
@@ -1987,25 +2077,25 @@
       <c r="Z14" s="31"/>
       <c r="AA14" s="31"/>
       <c r="AB14" s="31"/>
-      <c r="AC14" s="58"/>
-      <c r="AD14" s="59"/>
-      <c r="AE14" s="59"/>
-      <c r="AF14" s="59"/>
-      <c r="AG14" s="59"/>
-      <c r="AH14" s="59"/>
-      <c r="AI14" s="59"/>
-      <c r="AJ14" s="59"/>
-      <c r="AK14" s="60"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="41"/>
+      <c r="AE14" s="41"/>
+      <c r="AF14" s="41"/>
+      <c r="AG14" s="41"/>
+      <c r="AH14" s="41"/>
+      <c r="AI14" s="41"/>
+      <c r="AJ14" s="41"/>
+      <c r="AK14" s="42"/>
       <c r="AL14" s="31"/>
       <c r="AM14" s="31"/>
       <c r="AN14" s="31"/>
       <c r="AO14" s="14"/>
     </row>
-    <row r="15" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
-      <c r="E15" s="50"/>
+      <c r="E15" s="35"/>
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
       <c r="H15" s="31"/>
@@ -2019,7 +2109,7 @@
       <c r="P15" s="31"/>
       <c r="Q15" s="31"/>
       <c r="R15" s="31"/>
-      <c r="S15" s="51"/>
+      <c r="S15" s="36"/>
       <c r="T15" s="31"/>
       <c r="U15" s="31"/>
       <c r="V15" s="31"/>
@@ -2043,11 +2133,11 @@
       <c r="AN15" s="31"/>
       <c r="AO15" s="14"/>
     </row>
-    <row r="16" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
-      <c r="E16" s="50"/>
+      <c r="E16" s="35"/>
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
@@ -2061,16 +2151,16 @@
       <c r="P16" s="31"/>
       <c r="Q16" s="31"/>
       <c r="R16" s="31"/>
-      <c r="S16" s="51"/>
+      <c r="S16" s="36"/>
       <c r="T16" s="31"/>
       <c r="U16" s="31"/>
       <c r="V16" s="31"/>
-      <c r="W16" s="91" t="s">
+      <c r="W16" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="X16" s="92"/>
-      <c r="Y16" s="92"/>
-      <c r="Z16" s="93"/>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="61"/>
+      <c r="Z16" s="62"/>
       <c r="AA16" s="31"/>
       <c r="AB16" s="31"/>
       <c r="AC16" s="31"/>
@@ -2087,11 +2177,11 @@
       <c r="AN16" s="31"/>
       <c r="AO16" s="14"/>
     </row>
-    <row r="17" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
-      <c r="E17" s="50"/>
+      <c r="E17" s="35"/>
       <c r="F17" s="31"/>
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
@@ -2105,7 +2195,7 @@
       <c r="P17" s="31"/>
       <c r="Q17" s="31"/>
       <c r="R17" s="31"/>
-      <c r="S17" s="51"/>
+      <c r="S17" s="36"/>
       <c r="T17" s="31"/>
       <c r="U17" s="31"/>
       <c r="V17" s="31"/>
@@ -2129,11 +2219,11 @@
       <c r="AN17" s="31"/>
       <c r="AO17" s="14"/>
     </row>
-    <row r="18" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
-      <c r="E18" s="50"/>
+      <c r="E18" s="35"/>
       <c r="F18" s="31"/>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
@@ -2147,7 +2237,7 @@
       <c r="P18" s="31"/>
       <c r="Q18" s="31"/>
       <c r="R18" s="31"/>
-      <c r="S18" s="51"/>
+      <c r="S18" s="36"/>
       <c r="T18" s="31"/>
       <c r="U18" s="31"/>
       <c r="V18" s="31"/>
@@ -2171,11 +2261,11 @@
       <c r="AN18" s="31"/>
       <c r="AO18" s="14"/>
     </row>
-    <row r="19" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B19" s="7"/>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
-      <c r="E19" s="50"/>
+      <c r="E19" s="35"/>
       <c r="F19" s="31"/>
       <c r="G19" s="31"/>
       <c r="H19" s="31"/>
@@ -2189,7 +2279,7 @@
       <c r="P19" s="31"/>
       <c r="Q19" s="31"/>
       <c r="R19" s="31"/>
-      <c r="S19" s="51"/>
+      <c r="S19" s="36"/>
       <c r="T19" s="31"/>
       <c r="U19" s="31"/>
       <c r="V19" s="31"/>
@@ -2213,11 +2303,11 @@
       <c r="AN19" s="31"/>
       <c r="AO19" s="14"/>
     </row>
-    <row r="20" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B20" s="7"/>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
-      <c r="E20" s="50"/>
+      <c r="E20" s="35"/>
       <c r="F20" s="31"/>
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
@@ -2231,7 +2321,7 @@
       <c r="P20" s="31"/>
       <c r="Q20" s="31"/>
       <c r="R20" s="31"/>
-      <c r="S20" s="51"/>
+      <c r="S20" s="36"/>
       <c r="T20" s="31"/>
       <c r="U20" s="31"/>
       <c r="V20" s="31"/>
@@ -2255,11 +2345,11 @@
       <c r="AN20" s="31"/>
       <c r="AO20" s="14"/>
     </row>
-    <row r="21" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B21" s="15"/>
       <c r="C21" s="31"/>
       <c r="D21" s="31"/>
-      <c r="E21" s="50"/>
+      <c r="E21" s="35"/>
       <c r="F21" s="31"/>
       <c r="G21" s="31"/>
       <c r="H21" s="31"/>
@@ -2273,7 +2363,7 @@
       <c r="P21" s="31"/>
       <c r="Q21" s="31"/>
       <c r="R21" s="31"/>
-      <c r="S21" s="51"/>
+      <c r="S21" s="36"/>
       <c r="T21" s="31"/>
       <c r="U21" s="31"/>
       <c r="V21" s="31"/>
@@ -2297,25 +2387,25 @@
       <c r="AN21" s="31"/>
       <c r="AO21" s="14"/>
     </row>
-    <row r="22" spans="2:41" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="15"/>
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="54"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="39"/>
       <c r="T22" s="31"/>
       <c r="U22" s="31"/>
       <c r="V22" s="31"/>
@@ -2339,11 +2429,11 @@
       <c r="AN22" s="31"/>
       <c r="AO22" s="14"/>
     </row>
-    <row r="23" spans="2:41" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="AO23" s="14"/>
     </row>
-    <row r="24" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B24" s="16" t="s">
         <v>5</v>
       </c>
@@ -2387,7 +2477,7 @@
       <c r="AN24" s="18"/>
       <c r="AO24" s="20"/>
     </row>
-    <row r="25" spans="2:41" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="21" t="s">
         <v>6</v>
       </c>
@@ -2431,8 +2521,8 @@
       <c r="AN25" s="23"/>
       <c r="AO25" s="24"/>
     </row>
-    <row r="28" spans="2:41" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B29" s="25" t="s">
         <v>7</v>
       </c>
@@ -2476,31 +2566,31 @@
       <c r="AN29" s="26"/>
       <c r="AO29" s="27"/>
     </row>
-    <row r="30" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B30" s="15" t="s">
         <v>15</v>
       </c>
       <c r="AO30" s="14"/>
     </row>
-    <row r="31" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B31" s="15" t="s">
         <v>16</v>
       </c>
       <c r="AO31" s="14"/>
     </row>
-    <row r="32" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B32" s="15" t="s">
         <v>24</v>
       </c>
       <c r="AO32" s="14"/>
     </row>
-    <row r="33" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B33" s="15" t="s">
         <v>25</v>
       </c>
       <c r="AO33" s="14"/>
     </row>
-    <row r="34" spans="2:57" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="28"/>
       <c r="C34" s="23"/>
       <c r="D34" s="23"/>
@@ -2542,10 +2632,10 @@
       <c r="AN34" s="23"/>
       <c r="AO34" s="24"/>
     </row>
-    <row r="44" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="T44" s="29"/>
     </row>
-    <row r="45" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:57" x14ac:dyDescent="0.2">
       <c r="T45" s="30"/>
       <c r="U45" s="30"/>
       <c r="V45" s="30"/>
@@ -2585,7 +2675,7 @@
       <c r="BD45" s="30"/>
       <c r="BE45" s="30"/>
     </row>
-    <row r="46" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:57" x14ac:dyDescent="0.2">
       <c r="T46" s="30"/>
       <c r="U46" s="30"/>
       <c r="V46" s="30"/>
@@ -2625,7 +2715,7 @@
       <c r="BD46" s="30"/>
       <c r="BE46" s="30"/>
     </row>
-    <row r="47" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:57" x14ac:dyDescent="0.2">
       <c r="T47" s="30"/>
       <c r="U47" s="30"/>
       <c r="V47" s="30"/>
@@ -2665,7 +2755,7 @@
       <c r="BD47" s="30"/>
       <c r="BE47" s="30"/>
     </row>
-    <row r="48" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:57" x14ac:dyDescent="0.2">
       <c r="T48" s="30"/>
       <c r="U48" s="30"/>
       <c r="V48" s="30"/>
@@ -2738,52 +2828,52 @@
       <selection activeCell="AX23" sqref="AX23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="3.7109375" style="2"/>
+    <col min="1" max="16384" width="3.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:59" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+    <row r="2" spans="2:59" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="32" t="s">
+      <c r="C2" s="67"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="34"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="68"/>
       <c r="AF2" s="3" t="s">
         <v>2</v>
       </c>
@@ -2815,37 +2905,37 @@
       <c r="BF2" s="6"/>
       <c r="BG2" s="6"/>
     </row>
-    <row r="3" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="37"/>
+    <row r="3" spans="2:59" x14ac:dyDescent="0.2">
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="70"/>
+      <c r="AE3" s="71"/>
       <c r="AF3" s="7" t="s">
         <v>3</v>
       </c>
@@ -2877,37 +2967,37 @@
       <c r="BF3" s="6"/>
       <c r="BG3" s="6"/>
     </row>
-    <row r="4" spans="2:59" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="40"/>
+    <row r="4" spans="2:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="73"/>
+      <c r="AA4" s="73"/>
+      <c r="AB4" s="73"/>
+      <c r="AC4" s="73"/>
+      <c r="AD4" s="73"/>
+      <c r="AE4" s="74"/>
       <c r="AF4" s="9"/>
       <c r="AG4" s="10"/>
       <c r="AH4" s="10"/>
@@ -2927,7 +3017,7 @@
       <c r="AV4" s="1"/>
       <c r="AW4" s="1"/>
     </row>
-    <row r="5" spans="2:59" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2977,53 +3067,53 @@
       <c r="AV5" s="1"/>
       <c r="AW5" s="1"/>
     </row>
-    <row r="6" spans="2:59" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="81" t="s">
+    <row r="6" spans="2:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="82" t="s">
+      <c r="C6" s="64"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="44" t="s">
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="44" t="s">
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="44" t="s">
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="44" t="s">
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="45"/>
-      <c r="AB6" s="45"/>
-      <c r="AC6" s="45"/>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="44" t="s">
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="64"/>
+      <c r="AC6" s="64"/>
+      <c r="AD6" s="65"/>
+      <c r="AE6" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="AF6" s="45"/>
-      <c r="AG6" s="46"/>
+      <c r="AF6" s="64"/>
+      <c r="AG6" s="65"/>
       <c r="AH6" s="12"/>
       <c r="AI6" s="12"/>
       <c r="AJ6" s="12"/>
@@ -3033,7 +3123,7 @@
       <c r="AN6" s="12"/>
       <c r="AO6" s="13"/>
     </row>
-    <row r="7" spans="2:59" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:59" x14ac:dyDescent="0.2">
       <c r="B7" s="7"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -3072,7 +3162,7 @@
       <c r="AI7" s="1"/>
       <c r="AO7" s="14"/>
     </row>
-    <row r="8" spans="2:59" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:59" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
@@ -3114,7 +3204,7 @@
       <c r="AN8" s="31"/>
       <c r="AO8" s="14"/>
     </row>
-    <row r="9" spans="2:59" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:59" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
@@ -3127,14 +3217,14 @@
       <c r="I9" s="31"/>
       <c r="J9" s="31"/>
       <c r="K9" s="31"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="66"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="48"/>
       <c r="V9" s="31"/>
       <c r="W9" s="31"/>
       <c r="Y9" s="31" t="s">
@@ -3142,21 +3232,21 @@
       </c>
       <c r="Z9" s="31"/>
       <c r="AA9" s="31"/>
-      <c r="AC9" s="64"/>
-      <c r="AD9" s="65"/>
-      <c r="AE9" s="65"/>
-      <c r="AF9" s="65"/>
-      <c r="AG9" s="65"/>
-      <c r="AH9" s="65"/>
-      <c r="AI9" s="65"/>
-      <c r="AJ9" s="66"/>
+      <c r="AC9" s="46"/>
+      <c r="AD9" s="47"/>
+      <c r="AE9" s="47"/>
+      <c r="AF9" s="47"/>
+      <c r="AG9" s="47"/>
+      <c r="AH9" s="47"/>
+      <c r="AI9" s="47"/>
+      <c r="AJ9" s="48"/>
       <c r="AK9" s="31"/>
       <c r="AL9" s="31"/>
       <c r="AM9" s="31"/>
       <c r="AN9" s="31"/>
       <c r="AO9" s="14"/>
     </row>
-    <row r="10" spans="2:59" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:59" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
@@ -3169,14 +3259,14 @@
       <c r="I10" s="31"/>
       <c r="J10" s="31"/>
       <c r="K10" s="31"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="66"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="48"/>
       <c r="V10" s="31"/>
       <c r="W10" s="31"/>
       <c r="X10" s="31"/>
@@ -3184,21 +3274,21 @@
         <v>31</v>
       </c>
       <c r="Z10" s="31"/>
-      <c r="AC10" s="64"/>
-      <c r="AD10" s="65"/>
-      <c r="AE10" s="65"/>
-      <c r="AF10" s="65"/>
-      <c r="AG10" s="65"/>
-      <c r="AH10" s="65"/>
-      <c r="AI10" s="65"/>
-      <c r="AJ10" s="66"/>
+      <c r="AC10" s="46"/>
+      <c r="AD10" s="47"/>
+      <c r="AE10" s="47"/>
+      <c r="AF10" s="47"/>
+      <c r="AG10" s="47"/>
+      <c r="AH10" s="47"/>
+      <c r="AI10" s="47"/>
+      <c r="AJ10" s="48"/>
       <c r="AK10" s="31"/>
       <c r="AL10" s="31"/>
       <c r="AM10" s="31"/>
       <c r="AN10" s="31"/>
       <c r="AO10" s="14"/>
     </row>
-    <row r="11" spans="2:59" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
@@ -3240,7 +3330,7 @@
       <c r="AN11" s="31"/>
       <c r="AO11" s="14"/>
     </row>
-    <row r="12" spans="2:59" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
@@ -3260,11 +3350,11 @@
       <c r="R12" s="31"/>
       <c r="S12" s="31"/>
       <c r="T12" s="31"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="V12" s="89"/>
-      <c r="W12" s="90"/>
+      <c r="V12" s="109"/>
+      <c r="W12" s="110"/>
       <c r="X12" s="31"/>
       <c r="Y12" s="31"/>
       <c r="Z12" s="31"/>
@@ -3284,7 +3374,7 @@
       <c r="AN12" s="31"/>
       <c r="AO12" s="14"/>
     </row>
-    <row r="13" spans="2:59" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
@@ -3332,11 +3422,11 @@
       <c r="D14" s="31"/>
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
-      <c r="G14" s="55" t="s">
+      <c r="G14" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="56"/>
-      <c r="I14" s="57"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="80"/>
       <c r="J14" s="31"/>
       <c r="K14" s="31"/>
       <c r="L14" s="31"/>
@@ -3370,7 +3460,7 @@
       <c r="AN14" s="31"/>
       <c r="AO14" s="14"/>
     </row>
-    <row r="15" spans="2:59" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:59" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
@@ -3412,344 +3502,344 @@
       <c r="AN15" s="31"/>
       <c r="AO15" s="14"/>
     </row>
-    <row r="16" spans="2:59" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:59" x14ac:dyDescent="0.2">
       <c r="B16" s="7"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
-      <c r="G16" s="85" t="s">
+      <c r="G16" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="86"/>
-      <c r="I16" s="85" t="s">
+      <c r="H16" s="98"/>
+      <c r="I16" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="87"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="87"/>
-      <c r="M16" s="87"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="85" t="s">
+      <c r="J16" s="97"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="98"/>
+      <c r="O16" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="P16" s="87"/>
-      <c r="Q16" s="87"/>
-      <c r="R16" s="87"/>
-      <c r="S16" s="87"/>
-      <c r="T16" s="86"/>
-      <c r="U16" s="85" t="s">
+      <c r="P16" s="97"/>
+      <c r="Q16" s="97"/>
+      <c r="R16" s="97"/>
+      <c r="S16" s="97"/>
+      <c r="T16" s="98"/>
+      <c r="U16" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="V16" s="87"/>
-      <c r="W16" s="87"/>
-      <c r="X16" s="87"/>
-      <c r="Y16" s="87"/>
-      <c r="Z16" s="86"/>
-      <c r="AA16" s="85" t="s">
+      <c r="V16" s="97"/>
+      <c r="W16" s="97"/>
+      <c r="X16" s="97"/>
+      <c r="Y16" s="97"/>
+      <c r="Z16" s="98"/>
+      <c r="AA16" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="AB16" s="87"/>
-      <c r="AC16" s="87"/>
-      <c r="AD16" s="86"/>
-      <c r="AE16" s="85"/>
-      <c r="AF16" s="87"/>
-      <c r="AG16" s="86"/>
-      <c r="AH16" s="85"/>
-      <c r="AI16" s="87"/>
-      <c r="AJ16" s="86"/>
+      <c r="AB16" s="97"/>
+      <c r="AC16" s="97"/>
+      <c r="AD16" s="98"/>
+      <c r="AE16" s="96"/>
+      <c r="AF16" s="97"/>
+      <c r="AG16" s="98"/>
+      <c r="AH16" s="96"/>
+      <c r="AI16" s="97"/>
+      <c r="AJ16" s="98"/>
       <c r="AK16" s="31"/>
       <c r="AL16" s="31"/>
       <c r="AM16" s="31"/>
       <c r="AN16" s="31"/>
       <c r="AO16" s="14"/>
     </row>
-    <row r="17" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
-      <c r="G17" s="74">
+      <c r="G17" s="93">
         <v>1</v>
       </c>
-      <c r="H17" s="75"/>
-      <c r="I17" s="74" t="s">
+      <c r="H17" s="95"/>
+      <c r="I17" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="78" t="s">
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="77"/>
-      <c r="S17" s="77"/>
-      <c r="T17" s="75"/>
-      <c r="U17" s="74" t="s">
+      <c r="P17" s="94"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="94"/>
+      <c r="S17" s="94"/>
+      <c r="T17" s="95"/>
+      <c r="U17" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="V17" s="77"/>
-      <c r="W17" s="77"/>
-      <c r="X17" s="77"/>
-      <c r="Y17" s="77"/>
-      <c r="Z17" s="75"/>
-      <c r="AA17" s="74">
+      <c r="V17" s="94"/>
+      <c r="W17" s="94"/>
+      <c r="X17" s="94"/>
+      <c r="Y17" s="94"/>
+      <c r="Z17" s="95"/>
+      <c r="AA17" s="93">
         <v>88</v>
       </c>
-      <c r="AB17" s="77"/>
-      <c r="AC17" s="77"/>
-      <c r="AD17" s="75"/>
-      <c r="AE17" s="74" t="s">
+      <c r="AB17" s="94"/>
+      <c r="AC17" s="94"/>
+      <c r="AD17" s="95"/>
+      <c r="AE17" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="AF17" s="77"/>
-      <c r="AG17" s="75"/>
-      <c r="AH17" s="79" t="s">
+      <c r="AF17" s="94"/>
+      <c r="AG17" s="95"/>
+      <c r="AH17" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="AI17" s="77"/>
-      <c r="AJ17" s="75"/>
+      <c r="AI17" s="94"/>
+      <c r="AJ17" s="95"/>
       <c r="AK17" s="31"/>
       <c r="AL17" s="31"/>
       <c r="AM17" s="31"/>
       <c r="AN17" s="31"/>
       <c r="AO17" s="14"/>
     </row>
-    <row r="18" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
       <c r="E18" s="31"/>
       <c r="F18" s="31"/>
-      <c r="G18" s="94">
+      <c r="G18" s="90">
         <v>2</v>
       </c>
-      <c r="H18" s="95"/>
-      <c r="I18" s="94" t="s">
+      <c r="H18" s="92"/>
+      <c r="I18" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="95"/>
-      <c r="O18" s="97" t="s">
+      <c r="J18" s="91"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="96"/>
-      <c r="R18" s="96"/>
-      <c r="S18" s="96"/>
-      <c r="T18" s="95"/>
-      <c r="U18" s="94" t="s">
+      <c r="P18" s="91"/>
+      <c r="Q18" s="91"/>
+      <c r="R18" s="91"/>
+      <c r="S18" s="91"/>
+      <c r="T18" s="92"/>
+      <c r="U18" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="V18" s="96"/>
-      <c r="W18" s="96"/>
-      <c r="X18" s="96"/>
-      <c r="Y18" s="96"/>
-      <c r="Z18" s="95"/>
-      <c r="AA18" s="94">
+      <c r="V18" s="91"/>
+      <c r="W18" s="91"/>
+      <c r="X18" s="91"/>
+      <c r="Y18" s="91"/>
+      <c r="Z18" s="92"/>
+      <c r="AA18" s="90">
         <v>77</v>
       </c>
-      <c r="AB18" s="96"/>
-      <c r="AC18" s="96"/>
-      <c r="AD18" s="95"/>
-      <c r="AE18" s="94" t="s">
+      <c r="AB18" s="91"/>
+      <c r="AC18" s="91"/>
+      <c r="AD18" s="92"/>
+      <c r="AE18" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="AF18" s="96"/>
-      <c r="AG18" s="95"/>
-      <c r="AH18" s="98" t="s">
+      <c r="AF18" s="91"/>
+      <c r="AG18" s="92"/>
+      <c r="AH18" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="AI18" s="99"/>
-      <c r="AJ18" s="100"/>
+      <c r="AI18" s="104"/>
+      <c r="AJ18" s="105"/>
       <c r="AK18" s="31"/>
       <c r="AL18" s="31"/>
       <c r="AM18" s="31"/>
       <c r="AN18" s="31"/>
       <c r="AO18" s="14"/>
     </row>
-    <row r="19" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B19" s="7"/>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
       <c r="E19" s="31"/>
       <c r="F19" s="31"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="77"/>
-      <c r="S19" s="77"/>
-      <c r="T19" s="75"/>
-      <c r="U19" s="74"/>
-      <c r="V19" s="77"/>
-      <c r="W19" s="77"/>
-      <c r="X19" s="77"/>
-      <c r="Y19" s="77"/>
-      <c r="Z19" s="75"/>
-      <c r="AA19" s="74"/>
-      <c r="AB19" s="77"/>
-      <c r="AC19" s="77"/>
-      <c r="AD19" s="75"/>
-      <c r="AE19" s="74"/>
-      <c r="AF19" s="77"/>
-      <c r="AG19" s="75"/>
-      <c r="AH19" s="74"/>
-      <c r="AI19" s="77"/>
-      <c r="AJ19" s="75"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="94"/>
+      <c r="S19" s="94"/>
+      <c r="T19" s="95"/>
+      <c r="U19" s="93"/>
+      <c r="V19" s="94"/>
+      <c r="W19" s="94"/>
+      <c r="X19" s="94"/>
+      <c r="Y19" s="94"/>
+      <c r="Z19" s="95"/>
+      <c r="AA19" s="93"/>
+      <c r="AB19" s="94"/>
+      <c r="AC19" s="94"/>
+      <c r="AD19" s="95"/>
+      <c r="AE19" s="93"/>
+      <c r="AF19" s="94"/>
+      <c r="AG19" s="95"/>
+      <c r="AH19" s="93"/>
+      <c r="AI19" s="94"/>
+      <c r="AJ19" s="95"/>
       <c r="AK19" s="31"/>
       <c r="AL19" s="31"/>
       <c r="AM19" s="31"/>
       <c r="AN19" s="31"/>
       <c r="AO19" s="14"/>
     </row>
-    <row r="20" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B20" s="7"/>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
       <c r="F20" s="31"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="96"/>
-      <c r="R20" s="96"/>
-      <c r="S20" s="96"/>
-      <c r="T20" s="95"/>
-      <c r="U20" s="94"/>
-      <c r="V20" s="96"/>
-      <c r="W20" s="96"/>
-      <c r="X20" s="96"/>
-      <c r="Y20" s="96"/>
-      <c r="Z20" s="95"/>
-      <c r="AA20" s="94"/>
-      <c r="AB20" s="96"/>
-      <c r="AC20" s="96"/>
-      <c r="AD20" s="95"/>
-      <c r="AE20" s="94"/>
-      <c r="AF20" s="96"/>
-      <c r="AG20" s="95"/>
-      <c r="AH20" s="94"/>
-      <c r="AI20" s="96"/>
-      <c r="AJ20" s="95"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="91"/>
+      <c r="Q20" s="91"/>
+      <c r="R20" s="91"/>
+      <c r="S20" s="91"/>
+      <c r="T20" s="92"/>
+      <c r="U20" s="90"/>
+      <c r="V20" s="91"/>
+      <c r="W20" s="91"/>
+      <c r="X20" s="91"/>
+      <c r="Y20" s="91"/>
+      <c r="Z20" s="92"/>
+      <c r="AA20" s="90"/>
+      <c r="AB20" s="91"/>
+      <c r="AC20" s="91"/>
+      <c r="AD20" s="92"/>
+      <c r="AE20" s="90"/>
+      <c r="AF20" s="91"/>
+      <c r="AG20" s="92"/>
+      <c r="AH20" s="90"/>
+      <c r="AI20" s="91"/>
+      <c r="AJ20" s="92"/>
       <c r="AK20" s="31"/>
       <c r="AL20" s="31"/>
       <c r="AM20" s="31"/>
       <c r="AN20" s="31"/>
       <c r="AO20" s="14"/>
     </row>
-    <row r="21" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B21" s="15"/>
       <c r="C21" s="31"/>
       <c r="D21" s="31"/>
       <c r="E21" s="31"/>
       <c r="F21" s="31"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="77"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="77"/>
-      <c r="S21" s="77"/>
-      <c r="T21" s="75"/>
-      <c r="U21" s="74"/>
-      <c r="V21" s="77"/>
-      <c r="W21" s="77"/>
-      <c r="X21" s="77"/>
-      <c r="Y21" s="77"/>
-      <c r="Z21" s="75"/>
-      <c r="AA21" s="74"/>
-      <c r="AB21" s="77"/>
-      <c r="AC21" s="77"/>
-      <c r="AD21" s="75"/>
-      <c r="AE21" s="74"/>
-      <c r="AF21" s="77"/>
-      <c r="AG21" s="75"/>
-      <c r="AH21" s="74"/>
-      <c r="AI21" s="77"/>
-      <c r="AJ21" s="75"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="93"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="94"/>
+      <c r="S21" s="94"/>
+      <c r="T21" s="95"/>
+      <c r="U21" s="93"/>
+      <c r="V21" s="94"/>
+      <c r="W21" s="94"/>
+      <c r="X21" s="94"/>
+      <c r="Y21" s="94"/>
+      <c r="Z21" s="95"/>
+      <c r="AA21" s="93"/>
+      <c r="AB21" s="94"/>
+      <c r="AC21" s="94"/>
+      <c r="AD21" s="95"/>
+      <c r="AE21" s="93"/>
+      <c r="AF21" s="94"/>
+      <c r="AG21" s="95"/>
+      <c r="AH21" s="93"/>
+      <c r="AI21" s="94"/>
+      <c r="AJ21" s="95"/>
       <c r="AK21" s="31"/>
       <c r="AL21" s="31"/>
       <c r="AM21" s="31"/>
       <c r="AN21" s="31"/>
       <c r="AO21" s="14"/>
     </row>
-    <row r="22" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B22" s="15"/>
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
       <c r="E22" s="31"/>
       <c r="F22" s="31"/>
-      <c r="G22" s="101" t="s">
+      <c r="G22" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="102"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="102"/>
-      <c r="L22" s="102"/>
-      <c r="M22" s="102"/>
-      <c r="N22" s="102"/>
-      <c r="O22" s="102"/>
-      <c r="P22" s="102"/>
-      <c r="Q22" s="102"/>
-      <c r="R22" s="102"/>
-      <c r="S22" s="102"/>
-      <c r="T22" s="102"/>
-      <c r="U22" s="102"/>
-      <c r="V22" s="102"/>
-      <c r="W22" s="102"/>
-      <c r="X22" s="102"/>
-      <c r="Y22" s="102"/>
-      <c r="Z22" s="102"/>
-      <c r="AA22" s="102"/>
-      <c r="AB22" s="102"/>
-      <c r="AC22" s="102"/>
-      <c r="AD22" s="102"/>
-      <c r="AE22" s="102"/>
-      <c r="AF22" s="102"/>
-      <c r="AG22" s="102"/>
-      <c r="AH22" s="102"/>
-      <c r="AI22" s="102"/>
-      <c r="AJ22" s="103"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="100"/>
+      <c r="N22" s="100"/>
+      <c r="O22" s="100"/>
+      <c r="P22" s="100"/>
+      <c r="Q22" s="100"/>
+      <c r="R22" s="100"/>
+      <c r="S22" s="100"/>
+      <c r="T22" s="100"/>
+      <c r="U22" s="100"/>
+      <c r="V22" s="100"/>
+      <c r="W22" s="100"/>
+      <c r="X22" s="100"/>
+      <c r="Y22" s="100"/>
+      <c r="Z22" s="100"/>
+      <c r="AA22" s="100"/>
+      <c r="AB22" s="100"/>
+      <c r="AC22" s="100"/>
+      <c r="AD22" s="100"/>
+      <c r="AE22" s="100"/>
+      <c r="AF22" s="100"/>
+      <c r="AG22" s="100"/>
+      <c r="AH22" s="100"/>
+      <c r="AI22" s="100"/>
+      <c r="AJ22" s="101"/>
       <c r="AK22" s="31"/>
       <c r="AL22" s="31"/>
       <c r="AM22" s="31"/>
       <c r="AN22" s="31"/>
       <c r="AO22" s="14"/>
     </row>
-    <row r="23" spans="2:41" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="AO23" s="14"/>
     </row>
-    <row r="24" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B24" s="16" t="s">
         <v>5</v>
       </c>
@@ -3793,7 +3883,7 @@
       <c r="AN24" s="18"/>
       <c r="AO24" s="20"/>
     </row>
-    <row r="25" spans="2:41" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="21" t="s">
         <v>6</v>
       </c>
@@ -3837,8 +3927,8 @@
       <c r="AN25" s="23"/>
       <c r="AO25" s="24"/>
     </row>
-    <row r="28" spans="2:41" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B29" s="25" t="s">
         <v>7</v>
       </c>
@@ -3882,31 +3972,31 @@
       <c r="AN29" s="26"/>
       <c r="AO29" s="27"/>
     </row>
-    <row r="30" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B30" s="15" t="s">
         <v>47</v>
       </c>
       <c r="AO30" s="14"/>
     </row>
-    <row r="31" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B31" s="15" t="s">
         <v>59</v>
       </c>
       <c r="AO31" s="14"/>
     </row>
-    <row r="32" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B32" s="15" t="s">
         <v>60</v>
       </c>
       <c r="AO32" s="14"/>
     </row>
-    <row r="33" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B33" s="15" t="s">
         <v>61</v>
       </c>
       <c r="AO33" s="14"/>
     </row>
-    <row r="34" spans="2:57" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="28"/>
       <c r="C34" s="23"/>
       <c r="D34" s="23"/>
@@ -3948,9 +4038,9 @@
       <c r="AN34" s="23"/>
       <c r="AO34" s="24"/>
     </row>
-    <row r="36" spans="2:57" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="2:57" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="63" t="s">
+    <row r="36" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="45" t="s">
         <v>49</v>
       </c>
       <c r="C37" s="12"/>
@@ -3972,10 +4062,10 @@
       <c r="S37" s="12"/>
       <c r="T37" s="12"/>
       <c r="U37" s="13"/>
-      <c r="V37" s="107" t="s">
+      <c r="V37" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="AC37" s="63" t="s">
+      <c r="AC37" s="45" t="s">
         <v>65</v>
       </c>
       <c r="AD37" s="12"/>
@@ -3997,30 +4087,30 @@
       <c r="AT37" s="12"/>
       <c r="AU37" s="12"/>
       <c r="AV37" s="13"/>
-      <c r="AW37" s="107" t="s">
+      <c r="AW37" s="57" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="2:57" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="15"/>
       <c r="V38" s="14"/>
       <c r="AC38" s="15"/>
       <c r="AW38" s="14"/>
     </row>
-    <row r="39" spans="2:57" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="15"/>
       <c r="C39" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H39" s="61"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="62"/>
-      <c r="M39" s="62"/>
-      <c r="N39" s="62"/>
-      <c r="O39" s="104"/>
-      <c r="R39" s="105"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="54"/>
+      <c r="R39" s="55"/>
       <c r="S39" s="18"/>
       <c r="T39" s="18"/>
       <c r="U39" s="20"/>
@@ -4029,33 +4119,33 @@
       <c r="AD39" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AI39" s="61"/>
-      <c r="AJ39" s="62"/>
-      <c r="AK39" s="62"/>
-      <c r="AL39" s="62"/>
-      <c r="AM39" s="62"/>
-      <c r="AN39" s="62"/>
-      <c r="AO39" s="62"/>
-      <c r="AP39" s="104"/>
-      <c r="AS39" s="105"/>
+      <c r="AI39" s="43"/>
+      <c r="AJ39" s="44"/>
+      <c r="AK39" s="44"/>
+      <c r="AL39" s="44"/>
+      <c r="AM39" s="44"/>
+      <c r="AN39" s="44"/>
+      <c r="AO39" s="44"/>
+      <c r="AP39" s="54"/>
+      <c r="AS39" s="55"/>
       <c r="AT39" s="18"/>
       <c r="AU39" s="18"/>
       <c r="AV39" s="20"/>
       <c r="AW39" s="14"/>
     </row>
-    <row r="40" spans="2:57" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="15"/>
       <c r="C40" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H40" s="61"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="62"/>
-      <c r="O40" s="104"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="54"/>
       <c r="R40" s="15"/>
       <c r="U40" s="14"/>
       <c r="V40" s="14"/>
@@ -4063,31 +4153,31 @@
       <c r="AD40" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AI40" s="61"/>
-      <c r="AJ40" s="62"/>
-      <c r="AK40" s="62"/>
-      <c r="AL40" s="62"/>
-      <c r="AM40" s="62"/>
-      <c r="AN40" s="62"/>
-      <c r="AO40" s="62"/>
-      <c r="AP40" s="104"/>
+      <c r="AI40" s="43"/>
+      <c r="AJ40" s="44"/>
+      <c r="AK40" s="44"/>
+      <c r="AL40" s="44"/>
+      <c r="AM40" s="44"/>
+      <c r="AN40" s="44"/>
+      <c r="AO40" s="44"/>
+      <c r="AP40" s="54"/>
       <c r="AS40" s="15"/>
       <c r="AV40" s="14"/>
       <c r="AW40" s="14"/>
     </row>
-    <row r="41" spans="2:57" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="15"/>
       <c r="C41" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H41" s="61"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="62"/>
-      <c r="M41" s="62"/>
-      <c r="N41" s="62"/>
-      <c r="O41" s="104"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="54"/>
       <c r="R41" s="15"/>
       <c r="U41" s="14"/>
       <c r="V41" s="14"/>
@@ -4095,84 +4185,84 @@
       <c r="AD41" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AI41" s="61"/>
-      <c r="AJ41" s="62"/>
-      <c r="AK41" s="62"/>
-      <c r="AL41" s="62"/>
-      <c r="AM41" s="62"/>
-      <c r="AN41" s="62"/>
-      <c r="AO41" s="62"/>
-      <c r="AP41" s="104"/>
+      <c r="AI41" s="43"/>
+      <c r="AJ41" s="44"/>
+      <c r="AK41" s="44"/>
+      <c r="AL41" s="44"/>
+      <c r="AM41" s="44"/>
+      <c r="AN41" s="44"/>
+      <c r="AO41" s="44"/>
+      <c r="AP41" s="54"/>
       <c r="AS41" s="15"/>
       <c r="AV41" s="14"/>
       <c r="AW41" s="14"/>
     </row>
-    <row r="42" spans="2:57" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="15"/>
       <c r="C42" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H42" s="61"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="62"/>
-      <c r="L42" s="62"/>
-      <c r="M42" s="62"/>
-      <c r="N42" s="62"/>
-      <c r="O42" s="104"/>
-      <c r="R42" s="111" t="s">
+      <c r="H42" s="43"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="44"/>
+      <c r="N42" s="44"/>
+      <c r="O42" s="54"/>
+      <c r="R42" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="S42" s="112"/>
-      <c r="T42" s="112"/>
-      <c r="U42" s="113"/>
+      <c r="S42" s="88"/>
+      <c r="T42" s="88"/>
+      <c r="U42" s="89"/>
       <c r="V42" s="14"/>
       <c r="AC42" s="15"/>
       <c r="AD42" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AI42" s="61"/>
-      <c r="AJ42" s="62"/>
-      <c r="AK42" s="62"/>
-      <c r="AL42" s="62"/>
-      <c r="AM42" s="62"/>
-      <c r="AN42" s="62"/>
-      <c r="AO42" s="62"/>
-      <c r="AP42" s="104"/>
-      <c r="AS42" s="55" t="s">
+      <c r="AI42" s="43"/>
+      <c r="AJ42" s="44"/>
+      <c r="AK42" s="44"/>
+      <c r="AL42" s="44"/>
+      <c r="AM42" s="44"/>
+      <c r="AN42" s="44"/>
+      <c r="AO42" s="44"/>
+      <c r="AP42" s="54"/>
+      <c r="AS42" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="AT42" s="56"/>
-      <c r="AU42" s="56"/>
-      <c r="AV42" s="57"/>
+      <c r="AT42" s="79"/>
+      <c r="AU42" s="79"/>
+      <c r="AV42" s="80"/>
       <c r="AW42" s="14"/>
     </row>
-    <row r="43" spans="2:57" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="15"/>
       <c r="C43" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H43" s="61"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="62"/>
-      <c r="K43" s="62"/>
-      <c r="L43" s="62"/>
-      <c r="M43" s="62"/>
-      <c r="N43" s="62"/>
-      <c r="O43" s="104"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="44"/>
+      <c r="N43" s="44"/>
+      <c r="O43" s="54"/>
       <c r="V43" s="14"/>
       <c r="AC43" s="15"/>
       <c r="AD43" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AI43" s="61"/>
-      <c r="AJ43" s="62"/>
-      <c r="AK43" s="62"/>
-      <c r="AL43" s="62"/>
-      <c r="AM43" s="62"/>
-      <c r="AN43" s="62"/>
-      <c r="AO43" s="62"/>
-      <c r="AP43" s="104"/>
+      <c r="AI43" s="43"/>
+      <c r="AJ43" s="44"/>
+      <c r="AK43" s="44"/>
+      <c r="AL43" s="44"/>
+      <c r="AM43" s="44"/>
+      <c r="AN43" s="44"/>
+      <c r="AO43" s="44"/>
+      <c r="AP43" s="54"/>
       <c r="AW43" s="14"/>
     </row>
     <row r="44" spans="2:57" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4180,66 +4270,66 @@
       <c r="C44" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H44" s="61"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="62"/>
-      <c r="L44" s="62"/>
-      <c r="M44" s="62"/>
-      <c r="N44" s="62"/>
-      <c r="O44" s="104"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="44"/>
+      <c r="O44" s="54"/>
       <c r="U44" s="29"/>
       <c r="V44" s="14"/>
       <c r="AC44" s="15"/>
       <c r="AD44" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AI44" s="61"/>
-      <c r="AJ44" s="62"/>
-      <c r="AK44" s="62"/>
-      <c r="AL44" s="62"/>
-      <c r="AM44" s="62"/>
-      <c r="AN44" s="62"/>
-      <c r="AO44" s="62"/>
-      <c r="AP44" s="104"/>
+      <c r="AI44" s="43"/>
+      <c r="AJ44" s="44"/>
+      <c r="AK44" s="44"/>
+      <c r="AL44" s="44"/>
+      <c r="AM44" s="44"/>
+      <c r="AN44" s="44"/>
+      <c r="AO44" s="44"/>
+      <c r="AP44" s="54"/>
       <c r="AV44" s="29"/>
       <c r="AW44" s="14"/>
     </row>
-    <row r="45" spans="2:57" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="15"/>
       <c r="C45" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H45" s="61"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="62"/>
-      <c r="M45" s="62"/>
-      <c r="N45" s="62"/>
-      <c r="O45" s="104"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="44"/>
+      <c r="O45" s="54"/>
       <c r="U45" s="30"/>
-      <c r="V45" s="106"/>
+      <c r="V45" s="56"/>
       <c r="W45" s="30"/>
       <c r="X45" s="30"/>
       <c r="Y45" s="30"/>
       <c r="Z45" s="30"/>
       <c r="AA45" s="30"/>
       <c r="AB45" s="30"/>
-      <c r="AC45" s="114"/>
+      <c r="AC45" s="58"/>
       <c r="AD45" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AI45" s="61"/>
-      <c r="AJ45" s="62"/>
-      <c r="AK45" s="62"/>
-      <c r="AL45" s="62"/>
-      <c r="AM45" s="62"/>
-      <c r="AN45" s="62"/>
-      <c r="AO45" s="62"/>
-      <c r="AP45" s="104"/>
+      <c r="AI45" s="43"/>
+      <c r="AJ45" s="44"/>
+      <c r="AK45" s="44"/>
+      <c r="AL45" s="44"/>
+      <c r="AM45" s="44"/>
+      <c r="AN45" s="44"/>
+      <c r="AO45" s="44"/>
+      <c r="AP45" s="54"/>
       <c r="AV45" s="30"/>
-      <c r="AW45" s="106"/>
+      <c r="AW45" s="56"/>
       <c r="AX45" s="30"/>
       <c r="AY45" s="30"/>
       <c r="AZ45" s="30"/>
@@ -4249,41 +4339,41 @@
       <c r="BD45" s="30"/>
       <c r="BE45" s="30"/>
     </row>
-    <row r="46" spans="2:57" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="15"/>
       <c r="C46" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H46" s="61"/>
-      <c r="I46" s="62"/>
-      <c r="J46" s="62"/>
-      <c r="K46" s="62"/>
-      <c r="L46" s="62"/>
-      <c r="M46" s="62"/>
-      <c r="N46" s="62"/>
-      <c r="O46" s="104"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="44"/>
+      <c r="N46" s="44"/>
+      <c r="O46" s="54"/>
       <c r="U46" s="30"/>
-      <c r="V46" s="106"/>
+      <c r="V46" s="56"/>
       <c r="W46" s="30"/>
       <c r="X46" s="30"/>
       <c r="Y46" s="30"/>
       <c r="Z46" s="30"/>
       <c r="AA46" s="30"/>
       <c r="AB46" s="30"/>
-      <c r="AC46" s="114"/>
+      <c r="AC46" s="58"/>
       <c r="AD46" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AI46" s="61"/>
-      <c r="AJ46" s="62"/>
-      <c r="AK46" s="62"/>
-      <c r="AL46" s="62"/>
-      <c r="AM46" s="62"/>
-      <c r="AN46" s="62"/>
-      <c r="AO46" s="62"/>
-      <c r="AP46" s="104"/>
+      <c r="AI46" s="43"/>
+      <c r="AJ46" s="44"/>
+      <c r="AK46" s="44"/>
+      <c r="AL46" s="44"/>
+      <c r="AM46" s="44"/>
+      <c r="AN46" s="44"/>
+      <c r="AO46" s="44"/>
+      <c r="AP46" s="54"/>
       <c r="AV46" s="30"/>
-      <c r="AW46" s="106"/>
+      <c r="AW46" s="56"/>
       <c r="AX46" s="30"/>
       <c r="AY46" s="30"/>
       <c r="AZ46" s="30"/>
@@ -4293,28 +4383,28 @@
       <c r="BD46" s="30"/>
       <c r="BE46" s="30"/>
     </row>
-    <row r="47" spans="2:57" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="15"/>
       <c r="C47" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H47" s="61"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="62"/>
-      <c r="K47" s="62"/>
-      <c r="L47" s="62"/>
-      <c r="M47" s="62"/>
-      <c r="N47" s="62"/>
-      <c r="O47" s="104"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="54"/>
       <c r="U47" s="30"/>
-      <c r="V47" s="106"/>
+      <c r="V47" s="56"/>
       <c r="W47" s="30"/>
       <c r="X47" s="30"/>
       <c r="Y47" s="30"/>
       <c r="Z47" s="30"/>
       <c r="AA47" s="30"/>
       <c r="AB47" s="30"/>
-      <c r="AC47" s="114"/>
+      <c r="AC47" s="58"/>
       <c r="AD47" s="30"/>
       <c r="AE47" s="30"/>
       <c r="AF47" s="30"/>
@@ -4334,7 +4424,7 @@
       <c r="AT47" s="30"/>
       <c r="AU47" s="30"/>
       <c r="AV47" s="30"/>
-      <c r="AW47" s="106"/>
+      <c r="AW47" s="56"/>
       <c r="AX47" s="30"/>
       <c r="AY47" s="30"/>
       <c r="AZ47" s="30"/>
@@ -4344,52 +4434,52 @@
       <c r="BD47" s="30"/>
       <c r="BE47" s="30"/>
     </row>
-    <row r="48" spans="2:57" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="15"/>
       <c r="C48" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H48" s="61"/>
-      <c r="I48" s="62"/>
-      <c r="J48" s="62"/>
-      <c r="K48" s="62"/>
-      <c r="L48" s="62"/>
-      <c r="M48" s="62"/>
-      <c r="N48" s="62"/>
-      <c r="O48" s="104"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="44"/>
+      <c r="N48" s="44"/>
+      <c r="O48" s="54"/>
       <c r="U48" s="30"/>
-      <c r="V48" s="106"/>
+      <c r="V48" s="56"/>
       <c r="W48" s="30"/>
       <c r="X48" s="30"/>
       <c r="Y48" s="30"/>
       <c r="Z48" s="30"/>
       <c r="AA48" s="30"/>
       <c r="AB48" s="30"/>
-      <c r="AC48" s="114"/>
+      <c r="AC48" s="58"/>
       <c r="AD48" s="30"/>
       <c r="AE48" s="30"/>
       <c r="AF48" s="30"/>
-      <c r="AG48" s="115" t="s">
+      <c r="AG48" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="AH48" s="116"/>
-      <c r="AI48" s="116"/>
-      <c r="AJ48" s="116"/>
-      <c r="AK48" s="117"/>
+      <c r="AH48" s="82"/>
+      <c r="AI48" s="82"/>
+      <c r="AJ48" s="82"/>
+      <c r="AK48" s="83"/>
       <c r="AL48" s="30"/>
       <c r="AM48" s="30"/>
       <c r="AN48" s="30"/>
-      <c r="AO48" s="115" t="s">
+      <c r="AO48" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="AP48" s="116"/>
-      <c r="AQ48" s="116"/>
-      <c r="AR48" s="116"/>
-      <c r="AS48" s="117"/>
+      <c r="AP48" s="82"/>
+      <c r="AQ48" s="82"/>
+      <c r="AR48" s="82"/>
+      <c r="AS48" s="83"/>
       <c r="AT48" s="30"/>
       <c r="AU48" s="30"/>
       <c r="AV48" s="30"/>
-      <c r="AW48" s="106"/>
+      <c r="AW48" s="56"/>
       <c r="AX48" s="30"/>
       <c r="AY48" s="30"/>
       <c r="AZ48" s="30"/>
@@ -4399,7 +4489,7 @@
       <c r="BD48" s="30"/>
       <c r="BE48" s="30"/>
     </row>
-    <row r="49" spans="2:49" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="15"/>
       <c r="V49" s="14"/>
       <c r="AC49" s="28"/>
@@ -4424,17 +4514,17 @@
       <c r="AV49" s="23"/>
       <c r="AW49" s="24"/>
     </row>
-    <row r="50" spans="2:49" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B50" s="15"/>
-      <c r="J50" s="108" t="s">
+      <c r="J50" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="K50" s="109"/>
-      <c r="L50" s="109"/>
-      <c r="M50" s="110"/>
+      <c r="K50" s="85"/>
+      <c r="L50" s="85"/>
+      <c r="M50" s="86"/>
       <c r="V50" s="14"/>
     </row>
-    <row r="51" spans="2:49" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B51" s="28"/>
       <c r="C51" s="23"/>
       <c r="D51" s="23"/>
@@ -4457,9 +4547,9 @@
       <c r="U51" s="23"/>
       <c r="V51" s="24"/>
     </row>
-    <row r="53" spans="2:49" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="2:49" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="63" t="s">
+    <row r="53" spans="2:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="2:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="45" t="s">
         <v>62</v>
       </c>
       <c r="C54" s="12"/>
@@ -4481,26 +4571,26 @@
       <c r="S54" s="12"/>
       <c r="T54" s="12"/>
       <c r="U54" s="13"/>
-      <c r="V54" s="107" t="s">
+      <c r="V54" s="57" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="2:49" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B55" s="15"/>
       <c r="V55" s="14"/>
     </row>
-    <row r="56" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B56" s="15"/>
       <c r="C56" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="R56" s="105"/>
+      <c r="R56" s="55"/>
       <c r="S56" s="18"/>
       <c r="T56" s="18"/>
       <c r="U56" s="20"/>
       <c r="V56" s="14"/>
     </row>
-    <row r="57" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B57" s="15"/>
       <c r="C57" s="2" t="s">
         <v>52</v>
@@ -4509,7 +4599,7 @@
       <c r="U57" s="14"/>
       <c r="V57" s="14"/>
     </row>
-    <row r="58" spans="2:49" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B58" s="15"/>
       <c r="C58" s="2" t="s">
         <v>51</v>
@@ -4518,56 +4608,56 @@
       <c r="U58" s="14"/>
       <c r="V58" s="14"/>
     </row>
-    <row r="59" spans="2:49" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B59" s="15"/>
       <c r="C59" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="R59" s="55" t="s">
+      <c r="R59" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="S59" s="56"/>
-      <c r="T59" s="56"/>
-      <c r="U59" s="57"/>
+      <c r="S59" s="79"/>
+      <c r="T59" s="79"/>
+      <c r="U59" s="80"/>
       <c r="V59" s="14"/>
     </row>
-    <row r="60" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B60" s="15"/>
       <c r="C60" s="2" t="s">
         <v>31</v>
       </c>
       <c r="V60" s="14"/>
     </row>
-    <row r="61" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B61" s="15"/>
       <c r="C61" s="2" t="s">
         <v>30</v>
       </c>
       <c r="V61" s="14"/>
     </row>
-    <row r="62" spans="2:49" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B62" s="15"/>
       <c r="V62" s="14"/>
     </row>
-    <row r="63" spans="2:49" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B63" s="15"/>
-      <c r="F63" s="55" t="s">
+      <c r="F63" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="G63" s="56"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="57"/>
-      <c r="N63" s="55" t="s">
+      <c r="G63" s="79"/>
+      <c r="H63" s="79"/>
+      <c r="I63" s="79"/>
+      <c r="J63" s="80"/>
+      <c r="N63" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="O63" s="56"/>
-      <c r="P63" s="56"/>
-      <c r="Q63" s="56"/>
-      <c r="R63" s="57"/>
+      <c r="O63" s="79"/>
+      <c r="P63" s="79"/>
+      <c r="Q63" s="79"/>
+      <c r="R63" s="80"/>
       <c r="V63" s="14"/>
     </row>
-    <row r="64" spans="2:49" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B64" s="28"/>
       <c r="C64" s="23"/>
       <c r="D64" s="23"/>
@@ -4592,19 +4682,39 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="N63:R63"/>
-    <mergeCell ref="R59:U59"/>
-    <mergeCell ref="AS42:AV42"/>
-    <mergeCell ref="AG48:AK48"/>
-    <mergeCell ref="AO48:AS48"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="R42:U42"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="AE21:AG21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:AE4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="S6:X6"/>
+    <mergeCell ref="Y6:AD6"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="O21:T21"/>
+    <mergeCell ref="U21:Z21"/>
+    <mergeCell ref="O16:T16"/>
+    <mergeCell ref="U16:Z16"/>
+    <mergeCell ref="O17:T17"/>
+    <mergeCell ref="U17:Z17"/>
+    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="O18:T18"/>
+    <mergeCell ref="U18:Z18"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="O19:T19"/>
+    <mergeCell ref="U19:Z19"/>
+    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="I17:N17"/>
+    <mergeCell ref="I20:N20"/>
     <mergeCell ref="G22:AJ22"/>
     <mergeCell ref="AE16:AG16"/>
     <mergeCell ref="AE17:AG17"/>
@@ -4621,39 +4731,19 @@
     <mergeCell ref="AA21:AD21"/>
     <mergeCell ref="O20:T20"/>
     <mergeCell ref="U20:Z20"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="O21:T21"/>
-    <mergeCell ref="U21:Z21"/>
-    <mergeCell ref="O16:T16"/>
-    <mergeCell ref="U16:Z16"/>
-    <mergeCell ref="O17:T17"/>
-    <mergeCell ref="U17:Z17"/>
-    <mergeCell ref="I18:N18"/>
-    <mergeCell ref="O18:T18"/>
-    <mergeCell ref="U18:Z18"/>
-    <mergeCell ref="I19:N19"/>
-    <mergeCell ref="O19:T19"/>
-    <mergeCell ref="U19:Z19"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I16:N16"/>
-    <mergeCell ref="I17:N17"/>
-    <mergeCell ref="I20:N20"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:AE4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="S6:X6"/>
-    <mergeCell ref="Y6:AD6"/>
-    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="AE21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="N63:R63"/>
+    <mergeCell ref="R59:U59"/>
+    <mergeCell ref="AS42:AV42"/>
+    <mergeCell ref="AG48:AK48"/>
+    <mergeCell ref="AO48:AS48"/>
+    <mergeCell ref="J50:M50"/>
+    <mergeCell ref="R42:U42"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E6:I6" location="Sheet1!A1" display="Quản lý lái xe"/>
@@ -4670,55 +4760,55 @@
   <dimension ref="B1:BG48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y20" sqref="A1:XFD1048576"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="3.7109375" style="2"/>
+    <col min="1" max="16384" width="3.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:59" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+    <row r="2" spans="2:59" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="32" t="s">
+      <c r="C2" s="67"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="34"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="68"/>
       <c r="AF2" s="3" t="s">
         <v>2</v>
       </c>
@@ -4750,37 +4840,37 @@
       <c r="BF2" s="6"/>
       <c r="BG2" s="6"/>
     </row>
-    <row r="3" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="37"/>
+    <row r="3" spans="2:59" x14ac:dyDescent="0.2">
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="70"/>
+      <c r="AE3" s="71"/>
       <c r="AF3" s="7" t="s">
         <v>3</v>
       </c>
@@ -4812,37 +4902,37 @@
       <c r="BF3" s="6"/>
       <c r="BG3" s="6"/>
     </row>
-    <row r="4" spans="2:59" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="40"/>
+    <row r="4" spans="2:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="73"/>
+      <c r="AA4" s="73"/>
+      <c r="AB4" s="73"/>
+      <c r="AC4" s="73"/>
+      <c r="AD4" s="73"/>
+      <c r="AE4" s="74"/>
       <c r="AF4" s="9"/>
       <c r="AG4" s="10"/>
       <c r="AH4" s="10"/>
@@ -4862,7 +4952,7 @@
       <c r="AV4" s="1"/>
       <c r="AW4" s="1"/>
     </row>
-    <row r="5" spans="2:59" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -4912,53 +5002,53 @@
       <c r="AV5" s="1"/>
       <c r="AW5" s="1"/>
     </row>
-    <row r="6" spans="2:59" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="81" t="s">
+    <row r="6" spans="2:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="44" t="s">
+      <c r="C6" s="64"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="82" t="s">
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="44" t="s">
+      <c r="K6" s="113"/>
+      <c r="L6" s="113"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="44" t="s">
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="44" t="s">
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="45"/>
-      <c r="AB6" s="45"/>
-      <c r="AC6" s="45"/>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="44" t="s">
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="64"/>
+      <c r="AC6" s="64"/>
+      <c r="AD6" s="65"/>
+      <c r="AE6" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="AF6" s="45"/>
-      <c r="AG6" s="46"/>
+      <c r="AF6" s="64"/>
+      <c r="AG6" s="65"/>
       <c r="AH6" s="12"/>
       <c r="AI6" s="12"/>
       <c r="AJ6" s="12"/>
@@ -4968,7 +5058,7 @@
       <c r="AN6" s="12"/>
       <c r="AO6" s="13"/>
     </row>
-    <row r="7" spans="2:59" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:59" x14ac:dyDescent="0.2">
       <c r="B7" s="7"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -5007,7 +5097,7 @@
       <c r="AI7" s="1"/>
       <c r="AO7" s="14"/>
     </row>
-    <row r="8" spans="2:59" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:59" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
@@ -5049,7 +5139,7 @@
       <c r="AN8" s="31"/>
       <c r="AO8" s="14"/>
     </row>
-    <row r="9" spans="2:59" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:59" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
@@ -5069,20 +5159,20 @@
       <c r="P9" s="31"/>
       <c r="Q9" s="31"/>
       <c r="R9" s="31"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="76"/>
-      <c r="V9" s="76"/>
-      <c r="W9" s="76"/>
-      <c r="X9" s="76"/>
-      <c r="Y9" s="76"/>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="76"/>
-      <c r="AB9" s="76"/>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="76"/>
-      <c r="AE9" s="76"/>
-      <c r="AF9" s="73"/>
+      <c r="S9" s="115"/>
+      <c r="T9" s="116"/>
+      <c r="U9" s="116"/>
+      <c r="V9" s="116"/>
+      <c r="W9" s="116"/>
+      <c r="X9" s="116"/>
+      <c r="Y9" s="116"/>
+      <c r="Z9" s="116"/>
+      <c r="AA9" s="116"/>
+      <c r="AB9" s="116"/>
+      <c r="AC9" s="116"/>
+      <c r="AD9" s="116"/>
+      <c r="AE9" s="116"/>
+      <c r="AF9" s="117"/>
       <c r="AG9" s="31"/>
       <c r="AH9" s="31"/>
       <c r="AI9" s="31"/>
@@ -5093,7 +5183,7 @@
       <c r="AN9" s="31"/>
       <c r="AO9" s="14"/>
     </row>
-    <row r="10" spans="2:59" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:59" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
@@ -5113,20 +5203,20 @@
       <c r="P10" s="31"/>
       <c r="Q10" s="31"/>
       <c r="R10" s="31"/>
-      <c r="S10" s="72"/>
-      <c r="T10" s="76"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="76"/>
-      <c r="X10" s="76"/>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="76"/>
-      <c r="AA10" s="76"/>
-      <c r="AB10" s="76"/>
-      <c r="AC10" s="76"/>
-      <c r="AD10" s="76"/>
-      <c r="AE10" s="76"/>
-      <c r="AF10" s="73"/>
+      <c r="S10" s="115"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="116"/>
+      <c r="Y10" s="116"/>
+      <c r="Z10" s="116"/>
+      <c r="AA10" s="116"/>
+      <c r="AB10" s="116"/>
+      <c r="AC10" s="116"/>
+      <c r="AD10" s="116"/>
+      <c r="AE10" s="116"/>
+      <c r="AF10" s="117"/>
       <c r="AG10" s="31"/>
       <c r="AH10" s="31"/>
       <c r="AI10" s="31"/>
@@ -5137,7 +5227,7 @@
       <c r="AN10" s="31"/>
       <c r="AO10" s="14"/>
     </row>
-    <row r="11" spans="2:59" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:59" x14ac:dyDescent="0.2">
       <c r="B11" s="7"/>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
@@ -5157,20 +5247,20 @@
       <c r="P11" s="31"/>
       <c r="Q11" s="31"/>
       <c r="R11" s="31"/>
-      <c r="S11" s="72"/>
-      <c r="T11" s="76"/>
-      <c r="U11" s="76"/>
-      <c r="V11" s="76"/>
-      <c r="W11" s="76"/>
-      <c r="X11" s="76"/>
-      <c r="Y11" s="76"/>
-      <c r="Z11" s="76"/>
-      <c r="AA11" s="76"/>
-      <c r="AB11" s="76"/>
-      <c r="AC11" s="76"/>
-      <c r="AD11" s="76"/>
-      <c r="AE11" s="76"/>
-      <c r="AF11" s="73"/>
+      <c r="S11" s="115"/>
+      <c r="T11" s="116"/>
+      <c r="U11" s="116"/>
+      <c r="V11" s="116"/>
+      <c r="W11" s="116"/>
+      <c r="X11" s="116"/>
+      <c r="Y11" s="116"/>
+      <c r="Z11" s="116"/>
+      <c r="AA11" s="116"/>
+      <c r="AB11" s="116"/>
+      <c r="AC11" s="116"/>
+      <c r="AD11" s="116"/>
+      <c r="AE11" s="116"/>
+      <c r="AF11" s="117"/>
       <c r="AG11" s="31"/>
       <c r="AH11" s="31"/>
       <c r="AI11" s="31"/>
@@ -5181,7 +5271,7 @@
       <c r="AN11" s="31"/>
       <c r="AO11" s="14"/>
     </row>
-    <row r="12" spans="2:59" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:59" x14ac:dyDescent="0.2">
       <c r="B12" s="7"/>
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
@@ -5201,20 +5291,20 @@
       <c r="P12" s="31"/>
       <c r="Q12" s="31"/>
       <c r="R12" s="31"/>
-      <c r="S12" s="72"/>
-      <c r="T12" s="76"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="76"/>
-      <c r="X12" s="76"/>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="76"/>
-      <c r="AA12" s="76"/>
-      <c r="AB12" s="76"/>
-      <c r="AC12" s="76"/>
-      <c r="AD12" s="76"/>
-      <c r="AE12" s="76"/>
-      <c r="AF12" s="73"/>
+      <c r="S12" s="115"/>
+      <c r="T12" s="116"/>
+      <c r="U12" s="116"/>
+      <c r="V12" s="116"/>
+      <c r="W12" s="116"/>
+      <c r="X12" s="116"/>
+      <c r="Y12" s="116"/>
+      <c r="Z12" s="116"/>
+      <c r="AA12" s="116"/>
+      <c r="AB12" s="116"/>
+      <c r="AC12" s="116"/>
+      <c r="AD12" s="116"/>
+      <c r="AE12" s="116"/>
+      <c r="AF12" s="117"/>
       <c r="AG12" s="31"/>
       <c r="AH12" s="31"/>
       <c r="AI12" s="31"/>
@@ -5225,7 +5315,7 @@
       <c r="AN12" s="31"/>
       <c r="AO12" s="14"/>
     </row>
-    <row r="13" spans="2:59" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:59" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
@@ -5245,20 +5335,20 @@
       <c r="P13" s="31"/>
       <c r="Q13" s="31"/>
       <c r="R13" s="31"/>
-      <c r="S13" s="121"/>
-      <c r="T13" s="122"/>
-      <c r="U13" s="122"/>
-      <c r="V13" s="122"/>
-      <c r="W13" s="122"/>
-      <c r="X13" s="122"/>
-      <c r="Y13" s="122"/>
-      <c r="Z13" s="122"/>
-      <c r="AA13" s="122"/>
-      <c r="AB13" s="122"/>
-      <c r="AC13" s="122"/>
-      <c r="AD13" s="122"/>
-      <c r="AE13" s="122"/>
-      <c r="AF13" s="123"/>
+      <c r="S13" s="118"/>
+      <c r="T13" s="119"/>
+      <c r="U13" s="119"/>
+      <c r="V13" s="119"/>
+      <c r="W13" s="119"/>
+      <c r="X13" s="119"/>
+      <c r="Y13" s="119"/>
+      <c r="Z13" s="119"/>
+      <c r="AA13" s="119"/>
+      <c r="AB13" s="119"/>
+      <c r="AC13" s="119"/>
+      <c r="AD13" s="119"/>
+      <c r="AE13" s="119"/>
+      <c r="AF13" s="120"/>
       <c r="AG13" s="31"/>
       <c r="AH13" s="31"/>
       <c r="AI13" s="31"/>
@@ -5269,7 +5359,7 @@
       <c r="AN13" s="31"/>
       <c r="AO13" s="14"/>
     </row>
-    <row r="14" spans="2:59" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:59" x14ac:dyDescent="0.2">
       <c r="B14" s="7"/>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
@@ -5287,20 +5377,20 @@
       <c r="P14" s="31"/>
       <c r="Q14" s="31"/>
       <c r="R14" s="31"/>
-      <c r="S14" s="124"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="36"/>
-      <c r="AA14" s="36"/>
-      <c r="AB14" s="36"/>
-      <c r="AC14" s="36"/>
-      <c r="AD14" s="36"/>
-      <c r="AE14" s="36"/>
-      <c r="AF14" s="125"/>
+      <c r="S14" s="121"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="70"/>
+      <c r="W14" s="70"/>
+      <c r="X14" s="70"/>
+      <c r="Y14" s="70"/>
+      <c r="Z14" s="70"/>
+      <c r="AA14" s="70"/>
+      <c r="AB14" s="70"/>
+      <c r="AC14" s="70"/>
+      <c r="AD14" s="70"/>
+      <c r="AE14" s="70"/>
+      <c r="AF14" s="122"/>
       <c r="AG14" s="31"/>
       <c r="AH14" s="31"/>
       <c r="AI14" s="31"/>
@@ -5311,7 +5401,7 @@
       <c r="AN14" s="31"/>
       <c r="AO14" s="14"/>
     </row>
-    <row r="15" spans="2:59" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:59" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
@@ -5329,20 +5419,20 @@
       <c r="P15" s="31"/>
       <c r="Q15" s="31"/>
       <c r="R15" s="31"/>
-      <c r="S15" s="126"/>
-      <c r="T15" s="127"/>
-      <c r="U15" s="127"/>
-      <c r="V15" s="127"/>
-      <c r="W15" s="127"/>
-      <c r="X15" s="127"/>
-      <c r="Y15" s="127"/>
-      <c r="Z15" s="127"/>
-      <c r="AA15" s="127"/>
-      <c r="AB15" s="127"/>
-      <c r="AC15" s="127"/>
-      <c r="AD15" s="127"/>
-      <c r="AE15" s="127"/>
-      <c r="AF15" s="128"/>
+      <c r="S15" s="123"/>
+      <c r="T15" s="124"/>
+      <c r="U15" s="124"/>
+      <c r="V15" s="124"/>
+      <c r="W15" s="124"/>
+      <c r="X15" s="124"/>
+      <c r="Y15" s="124"/>
+      <c r="Z15" s="124"/>
+      <c r="AA15" s="124"/>
+      <c r="AB15" s="124"/>
+      <c r="AC15" s="124"/>
+      <c r="AD15" s="124"/>
+      <c r="AE15" s="124"/>
+      <c r="AF15" s="125"/>
       <c r="AG15" s="31"/>
       <c r="AH15" s="31"/>
       <c r="AI15" s="31"/>
@@ -5353,7 +5443,7 @@
       <c r="AN15" s="31"/>
       <c r="AO15" s="14"/>
     </row>
-    <row r="16" spans="2:59" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
@@ -5375,10 +5465,10 @@
       <c r="T16" s="31"/>
       <c r="U16" s="31"/>
       <c r="V16" s="31"/>
-      <c r="W16" s="118"/>
-      <c r="X16" s="118"/>
-      <c r="Y16" s="118"/>
-      <c r="Z16" s="118"/>
+      <c r="W16" s="59"/>
+      <c r="X16" s="59"/>
+      <c r="Y16" s="59"/>
+      <c r="Z16" s="59"/>
       <c r="AA16" s="31"/>
       <c r="AB16" s="31"/>
       <c r="AC16" s="31"/>
@@ -5395,7 +5485,7 @@
       <c r="AN16" s="31"/>
       <c r="AO16" s="14"/>
     </row>
-    <row r="17" spans="2:41" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
@@ -5413,12 +5503,12 @@
       <c r="P17" s="31"/>
       <c r="Q17" s="31"/>
       <c r="R17" s="31"/>
-      <c r="S17" s="55" t="s">
+      <c r="S17" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="57"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="80"/>
       <c r="W17" s="31"/>
       <c r="X17" s="31"/>
       <c r="Y17" s="31"/>
@@ -5439,7 +5529,7 @@
       <c r="AN17" s="31"/>
       <c r="AO17" s="14"/>
     </row>
-    <row r="18" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
@@ -5481,7 +5571,7 @@
       <c r="AN18" s="31"/>
       <c r="AO18" s="14"/>
     </row>
-    <row r="19" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B19" s="7"/>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
@@ -5525,7 +5615,7 @@
       <c r="AN19" s="31"/>
       <c r="AO19" s="14"/>
     </row>
-    <row r="20" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B20" s="7"/>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
@@ -5569,7 +5659,7 @@
       <c r="AN20" s="31"/>
       <c r="AO20" s="14"/>
     </row>
-    <row r="21" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B21" s="15"/>
       <c r="C21" s="31"/>
       <c r="D21" s="31"/>
@@ -5613,7 +5703,7 @@
       <c r="AN21" s="31"/>
       <c r="AO21" s="14"/>
     </row>
-    <row r="22" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B22" s="15"/>
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
@@ -5657,11 +5747,11 @@
       <c r="AN22" s="31"/>
       <c r="AO22" s="14"/>
     </row>
-    <row r="23" spans="2:41" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="AO23" s="14"/>
     </row>
-    <row r="24" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B24" s="16" t="s">
         <v>5</v>
       </c>
@@ -5705,7 +5795,7 @@
       <c r="AN24" s="18"/>
       <c r="AO24" s="20"/>
     </row>
-    <row r="25" spans="2:41" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="21" t="s">
         <v>6</v>
       </c>
@@ -5749,8 +5839,8 @@
       <c r="AN25" s="23"/>
       <c r="AO25" s="24"/>
     </row>
-    <row r="28" spans="2:41" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B29" s="25" t="s">
         <v>7</v>
       </c>
@@ -5794,31 +5884,31 @@
       <c r="AN29" s="26"/>
       <c r="AO29" s="27"/>
     </row>
-    <row r="30" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B30" s="15" t="s">
         <v>15</v>
       </c>
       <c r="AO30" s="14"/>
     </row>
-    <row r="31" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B31" s="15" t="s">
         <v>16</v>
       </c>
       <c r="AO31" s="14"/>
     </row>
-    <row r="32" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B32" s="15" t="s">
         <v>24</v>
       </c>
       <c r="AO32" s="14"/>
     </row>
-    <row r="33" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B33" s="15" t="s">
         <v>25</v>
       </c>
       <c r="AO33" s="14"/>
     </row>
-    <row r="34" spans="2:57" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="28"/>
       <c r="C34" s="23"/>
       <c r="D34" s="23"/>
@@ -5860,10 +5950,10 @@
       <c r="AN34" s="23"/>
       <c r="AO34" s="24"/>
     </row>
-    <row r="44" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="T44" s="29"/>
     </row>
-    <row r="45" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:57" x14ac:dyDescent="0.2">
       <c r="T45" s="30"/>
       <c r="U45" s="30"/>
       <c r="V45" s="30"/>
@@ -5903,7 +5993,7 @@
       <c r="BD45" s="30"/>
       <c r="BE45" s="30"/>
     </row>
-    <row r="46" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:57" x14ac:dyDescent="0.2">
       <c r="T46" s="30"/>
       <c r="U46" s="30"/>
       <c r="V46" s="30"/>
@@ -5943,7 +6033,7 @@
       <c r="BD46" s="30"/>
       <c r="BE46" s="30"/>
     </row>
-    <row r="47" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:57" x14ac:dyDescent="0.2">
       <c r="T47" s="30"/>
       <c r="U47" s="30"/>
       <c r="V47" s="30"/>
@@ -5983,7 +6073,7 @@
       <c r="BD47" s="30"/>
       <c r="BE47" s="30"/>
     </row>
-    <row r="48" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:57" x14ac:dyDescent="0.2">
       <c r="T48" s="30"/>
       <c r="U48" s="30"/>
       <c r="V48" s="30"/>
@@ -6025,12 +6115,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="S9:AF9"/>
-    <mergeCell ref="S13:AF15"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="S12:AF12"/>
-    <mergeCell ref="S11:AF11"/>
-    <mergeCell ref="S10:AF10"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="E2:AE4"/>
     <mergeCell ref="B6:D6"/>
@@ -6040,6 +6124,12 @@
     <mergeCell ref="S6:X6"/>
     <mergeCell ref="Y6:AD6"/>
     <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="S9:AF9"/>
+    <mergeCell ref="S13:AF15"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="S12:AF12"/>
+    <mergeCell ref="S11:AF11"/>
+    <mergeCell ref="S10:AF10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E6:I6" location="Sheet1!A1" display="Quản lý lái xe"/>
@@ -6059,52 +6149,52 @@
       <selection activeCell="AP14" sqref="AP13:AP14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="3.7109375" style="2"/>
+    <col min="1" max="16384" width="3.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:59" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+    <row r="2" spans="2:59" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="32" t="s">
+      <c r="C2" s="67"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="34"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="68"/>
       <c r="AF2" s="3" t="s">
         <v>2</v>
       </c>
@@ -6136,37 +6226,37 @@
       <c r="BF2" s="6"/>
       <c r="BG2" s="6"/>
     </row>
-    <row r="3" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="37"/>
+    <row r="3" spans="2:59" x14ac:dyDescent="0.2">
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="70"/>
+      <c r="AE3" s="71"/>
       <c r="AF3" s="7" t="s">
         <v>3</v>
       </c>
@@ -6198,37 +6288,37 @@
       <c r="BF3" s="6"/>
       <c r="BG3" s="6"/>
     </row>
-    <row r="4" spans="2:59" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="40"/>
+    <row r="4" spans="2:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="73"/>
+      <c r="AA4" s="73"/>
+      <c r="AB4" s="73"/>
+      <c r="AC4" s="73"/>
+      <c r="AD4" s="73"/>
+      <c r="AE4" s="74"/>
       <c r="AF4" s="9"/>
       <c r="AG4" s="10"/>
       <c r="AH4" s="10"/>
@@ -6248,7 +6338,7 @@
       <c r="AV4" s="1"/>
       <c r="AW4" s="1"/>
     </row>
-    <row r="5" spans="2:59" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -6298,53 +6388,53 @@
       <c r="AV5" s="1"/>
       <c r="AW5" s="1"/>
     </row>
-    <row r="6" spans="2:59" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="81" t="s">
+    <row r="6" spans="2:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="44" t="s">
+      <c r="C6" s="64"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="82" t="s">
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="44" t="s">
+      <c r="K6" s="113"/>
+      <c r="L6" s="113"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="44" t="s">
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="44" t="s">
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="45"/>
-      <c r="AB6" s="45"/>
-      <c r="AC6" s="45"/>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="44" t="s">
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="64"/>
+      <c r="AC6" s="64"/>
+      <c r="AD6" s="65"/>
+      <c r="AE6" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="AF6" s="45"/>
-      <c r="AG6" s="46"/>
+      <c r="AF6" s="64"/>
+      <c r="AG6" s="65"/>
       <c r="AH6" s="12"/>
       <c r="AI6" s="12"/>
       <c r="AJ6" s="12"/>
@@ -6354,7 +6444,7 @@
       <c r="AN6" s="12"/>
       <c r="AO6" s="13"/>
     </row>
-    <row r="7" spans="2:59" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:59" x14ac:dyDescent="0.2">
       <c r="B7" s="7"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -6393,7 +6483,7 @@
       <c r="AI7" s="1"/>
       <c r="AO7" s="14"/>
     </row>
-    <row r="8" spans="2:59" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:59" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
@@ -6435,7 +6525,7 @@
       <c r="AN8" s="31"/>
       <c r="AO8" s="14"/>
     </row>
-    <row r="9" spans="2:59" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:59" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
@@ -6455,20 +6545,20 @@
       <c r="P9" s="31"/>
       <c r="Q9" s="31"/>
       <c r="R9" s="31"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="76"/>
-      <c r="V9" s="76"/>
-      <c r="W9" s="76"/>
-      <c r="X9" s="76"/>
-      <c r="Y9" s="76"/>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="76"/>
-      <c r="AB9" s="76"/>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="76"/>
-      <c r="AE9" s="76"/>
-      <c r="AF9" s="73"/>
+      <c r="S9" s="115"/>
+      <c r="T9" s="116"/>
+      <c r="U9" s="116"/>
+      <c r="V9" s="116"/>
+      <c r="W9" s="116"/>
+      <c r="X9" s="116"/>
+      <c r="Y9" s="116"/>
+      <c r="Z9" s="116"/>
+      <c r="AA9" s="116"/>
+      <c r="AB9" s="116"/>
+      <c r="AC9" s="116"/>
+      <c r="AD9" s="116"/>
+      <c r="AE9" s="116"/>
+      <c r="AF9" s="117"/>
       <c r="AG9" s="31"/>
       <c r="AH9" s="31"/>
       <c r="AI9" s="31"/>
@@ -6479,7 +6569,7 @@
       <c r="AN9" s="31"/>
       <c r="AO9" s="14"/>
     </row>
-    <row r="10" spans="2:59" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:59" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
@@ -6499,20 +6589,20 @@
       <c r="P10" s="31"/>
       <c r="Q10" s="31"/>
       <c r="R10" s="31"/>
-      <c r="S10" s="72"/>
-      <c r="T10" s="76"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="76"/>
-      <c r="X10" s="76"/>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="76"/>
-      <c r="AA10" s="76"/>
-      <c r="AB10" s="76"/>
-      <c r="AC10" s="76"/>
-      <c r="AD10" s="76"/>
-      <c r="AE10" s="76"/>
-      <c r="AF10" s="73"/>
+      <c r="S10" s="115"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="116"/>
+      <c r="Y10" s="116"/>
+      <c r="Z10" s="116"/>
+      <c r="AA10" s="116"/>
+      <c r="AB10" s="116"/>
+      <c r="AC10" s="116"/>
+      <c r="AD10" s="116"/>
+      <c r="AE10" s="116"/>
+      <c r="AF10" s="117"/>
       <c r="AG10" s="31"/>
       <c r="AH10" s="31"/>
       <c r="AI10" s="31"/>
@@ -6523,7 +6613,7 @@
       <c r="AN10" s="31"/>
       <c r="AO10" s="14"/>
     </row>
-    <row r="11" spans="2:59" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:59" x14ac:dyDescent="0.2">
       <c r="B11" s="7"/>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
@@ -6543,20 +6633,20 @@
       <c r="P11" s="31"/>
       <c r="Q11" s="31"/>
       <c r="R11" s="31"/>
-      <c r="S11" s="72"/>
-      <c r="T11" s="76"/>
-      <c r="U11" s="76"/>
-      <c r="V11" s="76"/>
-      <c r="W11" s="76"/>
-      <c r="X11" s="76"/>
-      <c r="Y11" s="76"/>
-      <c r="Z11" s="76"/>
-      <c r="AA11" s="76"/>
-      <c r="AB11" s="76"/>
-      <c r="AC11" s="76"/>
-      <c r="AD11" s="76"/>
-      <c r="AE11" s="76"/>
-      <c r="AF11" s="73"/>
+      <c r="S11" s="115"/>
+      <c r="T11" s="116"/>
+      <c r="U11" s="116"/>
+      <c r="V11" s="116"/>
+      <c r="W11" s="116"/>
+      <c r="X11" s="116"/>
+      <c r="Y11" s="116"/>
+      <c r="Z11" s="116"/>
+      <c r="AA11" s="116"/>
+      <c r="AB11" s="116"/>
+      <c r="AC11" s="116"/>
+      <c r="AD11" s="116"/>
+      <c r="AE11" s="116"/>
+      <c r="AF11" s="117"/>
       <c r="AG11" s="31"/>
       <c r="AH11" s="31"/>
       <c r="AI11" s="31"/>
@@ -6567,7 +6657,7 @@
       <c r="AN11" s="31"/>
       <c r="AO11" s="14"/>
     </row>
-    <row r="12" spans="2:59" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:59" x14ac:dyDescent="0.2">
       <c r="B12" s="7"/>
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
@@ -6587,20 +6677,20 @@
       <c r="P12" s="31"/>
       <c r="Q12" s="31"/>
       <c r="R12" s="31"/>
-      <c r="S12" s="72"/>
-      <c r="T12" s="76"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="76"/>
-      <c r="X12" s="76"/>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="76"/>
-      <c r="AA12" s="76"/>
-      <c r="AB12" s="76"/>
-      <c r="AC12" s="76"/>
-      <c r="AD12" s="76"/>
-      <c r="AE12" s="76"/>
-      <c r="AF12" s="73"/>
+      <c r="S12" s="115"/>
+      <c r="T12" s="116"/>
+      <c r="U12" s="116"/>
+      <c r="V12" s="116"/>
+      <c r="W12" s="116"/>
+      <c r="X12" s="116"/>
+      <c r="Y12" s="116"/>
+      <c r="Z12" s="116"/>
+      <c r="AA12" s="116"/>
+      <c r="AB12" s="116"/>
+      <c r="AC12" s="116"/>
+      <c r="AD12" s="116"/>
+      <c r="AE12" s="116"/>
+      <c r="AF12" s="117"/>
       <c r="AG12" s="31"/>
       <c r="AH12" s="31"/>
       <c r="AI12" s="31"/>
@@ -6611,7 +6701,7 @@
       <c r="AN12" s="31"/>
       <c r="AO12" s="14"/>
     </row>
-    <row r="13" spans="2:59" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:59" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
@@ -6631,20 +6721,20 @@
       <c r="P13" s="31"/>
       <c r="Q13" s="31"/>
       <c r="R13" s="31"/>
-      <c r="S13" s="121"/>
-      <c r="T13" s="122"/>
-      <c r="U13" s="122"/>
-      <c r="V13" s="122"/>
-      <c r="W13" s="122"/>
-      <c r="X13" s="122"/>
-      <c r="Y13" s="122"/>
-      <c r="Z13" s="122"/>
-      <c r="AA13" s="122"/>
-      <c r="AB13" s="122"/>
-      <c r="AC13" s="122"/>
-      <c r="AD13" s="122"/>
-      <c r="AE13" s="122"/>
-      <c r="AF13" s="123"/>
+      <c r="S13" s="118"/>
+      <c r="T13" s="119"/>
+      <c r="U13" s="119"/>
+      <c r="V13" s="119"/>
+      <c r="W13" s="119"/>
+      <c r="X13" s="119"/>
+      <c r="Y13" s="119"/>
+      <c r="Z13" s="119"/>
+      <c r="AA13" s="119"/>
+      <c r="AB13" s="119"/>
+      <c r="AC13" s="119"/>
+      <c r="AD13" s="119"/>
+      <c r="AE13" s="119"/>
+      <c r="AF13" s="120"/>
       <c r="AG13" s="31"/>
       <c r="AH13" s="31"/>
       <c r="AI13" s="31"/>
@@ -6655,7 +6745,7 @@
       <c r="AN13" s="31"/>
       <c r="AO13" s="14"/>
     </row>
-    <row r="14" spans="2:59" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:59" x14ac:dyDescent="0.2">
       <c r="B14" s="7"/>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
@@ -6673,20 +6763,20 @@
       <c r="P14" s="31"/>
       <c r="Q14" s="31"/>
       <c r="R14" s="31"/>
-      <c r="S14" s="124"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="36"/>
-      <c r="AA14" s="36"/>
-      <c r="AB14" s="36"/>
-      <c r="AC14" s="36"/>
-      <c r="AD14" s="36"/>
-      <c r="AE14" s="36"/>
-      <c r="AF14" s="125"/>
+      <c r="S14" s="121"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="70"/>
+      <c r="W14" s="70"/>
+      <c r="X14" s="70"/>
+      <c r="Y14" s="70"/>
+      <c r="Z14" s="70"/>
+      <c r="AA14" s="70"/>
+      <c r="AB14" s="70"/>
+      <c r="AC14" s="70"/>
+      <c r="AD14" s="70"/>
+      <c r="AE14" s="70"/>
+      <c r="AF14" s="122"/>
       <c r="AG14" s="31"/>
       <c r="AH14" s="31"/>
       <c r="AI14" s="31"/>
@@ -6697,7 +6787,7 @@
       <c r="AN14" s="31"/>
       <c r="AO14" s="14"/>
     </row>
-    <row r="15" spans="2:59" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:59" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
@@ -6715,20 +6805,20 @@
       <c r="P15" s="31"/>
       <c r="Q15" s="31"/>
       <c r="R15" s="31"/>
-      <c r="S15" s="126"/>
-      <c r="T15" s="127"/>
-      <c r="U15" s="127"/>
-      <c r="V15" s="127"/>
-      <c r="W15" s="127"/>
-      <c r="X15" s="127"/>
-      <c r="Y15" s="127"/>
-      <c r="Z15" s="127"/>
-      <c r="AA15" s="127"/>
-      <c r="AB15" s="127"/>
-      <c r="AC15" s="127"/>
-      <c r="AD15" s="127"/>
-      <c r="AE15" s="127"/>
-      <c r="AF15" s="128"/>
+      <c r="S15" s="123"/>
+      <c r="T15" s="124"/>
+      <c r="U15" s="124"/>
+      <c r="V15" s="124"/>
+      <c r="W15" s="124"/>
+      <c r="X15" s="124"/>
+      <c r="Y15" s="124"/>
+      <c r="Z15" s="124"/>
+      <c r="AA15" s="124"/>
+      <c r="AB15" s="124"/>
+      <c r="AC15" s="124"/>
+      <c r="AD15" s="124"/>
+      <c r="AE15" s="124"/>
+      <c r="AF15" s="125"/>
       <c r="AG15" s="31"/>
       <c r="AH15" s="31"/>
       <c r="AI15" s="31"/>
@@ -6739,7 +6829,7 @@
       <c r="AN15" s="31"/>
       <c r="AO15" s="14"/>
     </row>
-    <row r="16" spans="2:59" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
@@ -6761,10 +6851,10 @@
       <c r="T16" s="31"/>
       <c r="U16" s="31"/>
       <c r="V16" s="31"/>
-      <c r="W16" s="118"/>
-      <c r="X16" s="118"/>
-      <c r="Y16" s="118"/>
-      <c r="Z16" s="118"/>
+      <c r="W16" s="59"/>
+      <c r="X16" s="59"/>
+      <c r="Y16" s="59"/>
+      <c r="Z16" s="59"/>
       <c r="AA16" s="31"/>
       <c r="AB16" s="31"/>
       <c r="AC16" s="31"/>
@@ -6781,7 +6871,7 @@
       <c r="AN16" s="31"/>
       <c r="AO16" s="14"/>
     </row>
-    <row r="17" spans="2:41" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
@@ -6799,12 +6889,12 @@
       <c r="P17" s="31"/>
       <c r="Q17" s="31"/>
       <c r="R17" s="31"/>
-      <c r="S17" s="55" t="s">
+      <c r="S17" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="57"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="80"/>
       <c r="W17" s="31"/>
       <c r="X17" s="31"/>
       <c r="Y17" s="31"/>
@@ -6825,7 +6915,7 @@
       <c r="AN17" s="31"/>
       <c r="AO17" s="14"/>
     </row>
-    <row r="18" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
@@ -6867,7 +6957,7 @@
       <c r="AN18" s="31"/>
       <c r="AO18" s="14"/>
     </row>
-    <row r="19" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B19" s="7"/>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
@@ -6911,7 +7001,7 @@
       <c r="AN19" s="31"/>
       <c r="AO19" s="14"/>
     </row>
-    <row r="20" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B20" s="7"/>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
@@ -6955,7 +7045,7 @@
       <c r="AN20" s="31"/>
       <c r="AO20" s="14"/>
     </row>
-    <row r="21" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B21" s="15"/>
       <c r="C21" s="31"/>
       <c r="D21" s="31"/>
@@ -6999,7 +7089,7 @@
       <c r="AN21" s="31"/>
       <c r="AO21" s="14"/>
     </row>
-    <row r="22" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B22" s="15"/>
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
@@ -7043,11 +7133,11 @@
       <c r="AN22" s="31"/>
       <c r="AO22" s="14"/>
     </row>
-    <row r="23" spans="2:41" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="AO23" s="14"/>
     </row>
-    <row r="24" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B24" s="16" t="s">
         <v>5</v>
       </c>
@@ -7091,7 +7181,7 @@
       <c r="AN24" s="18"/>
       <c r="AO24" s="20"/>
     </row>
-    <row r="25" spans="2:41" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="21" t="s">
         <v>6</v>
       </c>
@@ -7135,8 +7225,8 @@
       <c r="AN25" s="23"/>
       <c r="AO25" s="24"/>
     </row>
-    <row r="28" spans="2:41" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B29" s="25" t="s">
         <v>7</v>
       </c>
@@ -7180,31 +7270,31 @@
       <c r="AN29" s="26"/>
       <c r="AO29" s="27"/>
     </row>
-    <row r="30" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B30" s="15" t="s">
         <v>15</v>
       </c>
       <c r="AO30" s="14"/>
     </row>
-    <row r="31" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B31" s="15" t="s">
         <v>16</v>
       </c>
       <c r="AO31" s="14"/>
     </row>
-    <row r="32" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B32" s="15" t="s">
         <v>24</v>
       </c>
       <c r="AO32" s="14"/>
     </row>
-    <row r="33" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B33" s="15" t="s">
         <v>25</v>
       </c>
       <c r="AO33" s="14"/>
     </row>
-    <row r="34" spans="2:57" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="28"/>
       <c r="C34" s="23"/>
       <c r="D34" s="23"/>
@@ -7246,10 +7336,10 @@
       <c r="AN34" s="23"/>
       <c r="AO34" s="24"/>
     </row>
-    <row r="44" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="T44" s="29"/>
     </row>
-    <row r="45" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:57" x14ac:dyDescent="0.2">
       <c r="T45" s="30"/>
       <c r="U45" s="30"/>
       <c r="V45" s="30"/>
@@ -7289,7 +7379,7 @@
       <c r="BD45" s="30"/>
       <c r="BE45" s="30"/>
     </row>
-    <row r="46" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:57" x14ac:dyDescent="0.2">
       <c r="T46" s="30"/>
       <c r="U46" s="30"/>
       <c r="V46" s="30"/>
@@ -7329,7 +7419,7 @@
       <c r="BD46" s="30"/>
       <c r="BE46" s="30"/>
     </row>
-    <row r="47" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:57" x14ac:dyDescent="0.2">
       <c r="T47" s="30"/>
       <c r="U47" s="30"/>
       <c r="V47" s="30"/>
@@ -7369,7 +7459,7 @@
       <c r="BD47" s="30"/>
       <c r="BE47" s="30"/>
     </row>
-    <row r="48" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:57" x14ac:dyDescent="0.2">
       <c r="T48" s="30"/>
       <c r="U48" s="30"/>
       <c r="V48" s="30"/>
@@ -7411,11 +7501,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="S9:AF9"/>
-    <mergeCell ref="S10:AF10"/>
-    <mergeCell ref="S11:AF11"/>
-    <mergeCell ref="S12:AF12"/>
-    <mergeCell ref="S13:AF15"/>
     <mergeCell ref="S17:V17"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="E2:AE4"/>
@@ -7426,6 +7511,11 @@
     <mergeCell ref="S6:X6"/>
     <mergeCell ref="Y6:AD6"/>
     <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="S9:AF9"/>
+    <mergeCell ref="S10:AF10"/>
+    <mergeCell ref="S11:AF11"/>
+    <mergeCell ref="S12:AF12"/>
+    <mergeCell ref="S13:AF15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E6:I6" location="Sheet1!A1" display="Quản lý lái xe"/>
@@ -7439,58 +7529,58 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BG48"/>
+  <dimension ref="B1:BG63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA17" sqref="AA17"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="3.7109375" style="2"/>
+    <col min="1" max="16384" width="3.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:59" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+    <row r="2" spans="2:59" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="32" t="s">
+      <c r="C2" s="67"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="34"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="68"/>
       <c r="AF2" s="3" t="s">
         <v>2</v>
       </c>
@@ -7522,37 +7612,37 @@
       <c r="BF2" s="6"/>
       <c r="BG2" s="6"/>
     </row>
-    <row r="3" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="37"/>
+    <row r="3" spans="2:59" x14ac:dyDescent="0.2">
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="70"/>
+      <c r="AE3" s="71"/>
       <c r="AF3" s="7" t="s">
         <v>3</v>
       </c>
@@ -7584,37 +7674,37 @@
       <c r="BF3" s="6"/>
       <c r="BG3" s="6"/>
     </row>
-    <row r="4" spans="2:59" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="40"/>
+    <row r="4" spans="2:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="73"/>
+      <c r="AA4" s="73"/>
+      <c r="AB4" s="73"/>
+      <c r="AC4" s="73"/>
+      <c r="AD4" s="73"/>
+      <c r="AE4" s="74"/>
       <c r="AF4" s="9"/>
       <c r="AG4" s="10"/>
       <c r="AH4" s="10"/>
@@ -7634,7 +7724,7 @@
       <c r="AV4" s="1"/>
       <c r="AW4" s="1"/>
     </row>
-    <row r="5" spans="2:59" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -7684,53 +7774,53 @@
       <c r="AV5" s="1"/>
       <c r="AW5" s="1"/>
     </row>
-    <row r="6" spans="2:59" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="81" t="s">
+    <row r="6" spans="2:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="44" t="s">
+      <c r="C6" s="64"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="44" t="s">
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="44" t="s">
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="82" t="s">
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="83"/>
-      <c r="U6" s="83"/>
-      <c r="V6" s="83"/>
-      <c r="W6" s="83"/>
-      <c r="X6" s="84"/>
-      <c r="Y6" s="44" t="s">
+      <c r="T6" s="113"/>
+      <c r="U6" s="113"/>
+      <c r="V6" s="113"/>
+      <c r="W6" s="113"/>
+      <c r="X6" s="114"/>
+      <c r="Y6" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="45"/>
-      <c r="AB6" s="45"/>
-      <c r="AC6" s="45"/>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="44" t="s">
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="64"/>
+      <c r="AC6" s="64"/>
+      <c r="AD6" s="65"/>
+      <c r="AE6" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="AF6" s="45"/>
-      <c r="AG6" s="46"/>
+      <c r="AF6" s="64"/>
+      <c r="AG6" s="65"/>
       <c r="AH6" s="12"/>
       <c r="AI6" s="12"/>
       <c r="AJ6" s="12"/>
@@ -7740,7 +7830,7 @@
       <c r="AN6" s="12"/>
       <c r="AO6" s="13"/>
     </row>
-    <row r="7" spans="2:59" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:59" x14ac:dyDescent="0.2">
       <c r="B7" s="7"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -7779,7 +7869,7 @@
       <c r="AI7" s="1"/>
       <c r="AO7" s="14"/>
     </row>
-    <row r="8" spans="2:59" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:59" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
@@ -7804,10 +7894,10 @@
       <c r="W8" s="31"/>
       <c r="X8" s="31"/>
       <c r="Y8" s="31"/>
-      <c r="Z8" s="67"/>
-      <c r="AA8" s="68"/>
-      <c r="AB8" s="68"/>
-      <c r="AC8" s="69"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="50"/>
+      <c r="AB8" s="50"/>
+      <c r="AC8" s="51"/>
       <c r="AD8" s="31"/>
       <c r="AE8" s="31"/>
       <c r="AF8" s="31"/>
@@ -7821,7 +7911,7 @@
       <c r="AN8" s="31"/>
       <c r="AO8" s="14"/>
     </row>
-    <row r="9" spans="2:59" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:59" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
@@ -7848,10 +7938,10 @@
       <c r="W9" s="31"/>
       <c r="X9" s="31"/>
       <c r="Y9" s="31"/>
-      <c r="Z9" s="70"/>
+      <c r="Z9" s="52"/>
       <c r="AA9" s="31"/>
       <c r="AB9" s="31"/>
-      <c r="AC9" s="71"/>
+      <c r="AC9" s="53"/>
       <c r="AD9" s="31"/>
       <c r="AE9" s="31"/>
       <c r="AF9" s="31"/>
@@ -7865,7 +7955,7 @@
       <c r="AN9" s="31"/>
       <c r="AO9" s="14"/>
     </row>
-    <row r="10" spans="2:59" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:59" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
@@ -7892,10 +7982,10 @@
       <c r="W10" s="31"/>
       <c r="X10" s="31"/>
       <c r="Y10" s="31"/>
-      <c r="Z10" s="70"/>
+      <c r="Z10" s="52"/>
       <c r="AA10" s="31"/>
       <c r="AB10" s="31"/>
-      <c r="AC10" s="71"/>
+      <c r="AC10" s="53"/>
       <c r="AD10" s="31"/>
       <c r="AE10" s="31"/>
       <c r="AF10" s="31"/>
@@ -7909,7 +7999,7 @@
       <c r="AN10" s="31"/>
       <c r="AO10" s="14"/>
     </row>
-    <row r="11" spans="2:59" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:59" x14ac:dyDescent="0.2">
       <c r="B11" s="7"/>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
@@ -7936,12 +8026,12 @@
       <c r="W11" s="31"/>
       <c r="X11" s="31"/>
       <c r="Y11" s="31"/>
-      <c r="Z11" s="80" t="s">
+      <c r="Z11" s="126" t="s">
         <v>81</v>
       </c>
-      <c r="AA11" s="119"/>
-      <c r="AB11" s="119"/>
-      <c r="AC11" s="120"/>
+      <c r="AA11" s="127"/>
+      <c r="AB11" s="127"/>
+      <c r="AC11" s="128"/>
       <c r="AD11" s="31"/>
       <c r="AE11" s="31"/>
       <c r="AF11" s="31"/>
@@ -7955,7 +8045,7 @@
       <c r="AN11" s="31"/>
       <c r="AO11" s="14"/>
     </row>
-    <row r="12" spans="2:59" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:59" x14ac:dyDescent="0.2">
       <c r="B12" s="7"/>
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
@@ -7965,7 +8055,7 @@
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
       <c r="J12" s="31" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K12" s="31"/>
       <c r="L12" s="31"/>
@@ -7982,10 +8072,10 @@
       <c r="W12" s="31"/>
       <c r="X12" s="31"/>
       <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="31"/>
+      <c r="Z12" s="135"/>
+      <c r="AA12" s="135"/>
+      <c r="AB12" s="135"/>
+      <c r="AC12" s="135"/>
       <c r="AD12" s="31"/>
       <c r="AE12" s="31"/>
       <c r="AF12" s="31"/>
@@ -7999,7 +8089,7 @@
       <c r="AN12" s="31"/>
       <c r="AO12" s="14"/>
     </row>
-    <row r="13" spans="2:59" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:59" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
@@ -8008,7 +8098,9 @@
       <c r="G13" s="31"/>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
+      <c r="J13" s="31" t="s">
+        <v>101</v>
+      </c>
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
       <c r="M13" s="31"/>
@@ -8017,20 +8109,20 @@
       <c r="P13" s="31"/>
       <c r="Q13" s="31"/>
       <c r="R13" s="31"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="135"/>
+      <c r="AA13" s="135"/>
+      <c r="AB13" s="135"/>
+      <c r="AC13" s="135"/>
+      <c r="AD13" s="31"/>
+      <c r="AE13" s="31"/>
+      <c r="AF13" s="31"/>
       <c r="AG13" s="31"/>
       <c r="AH13" s="31"/>
       <c r="AI13" s="31"/>
@@ -8041,7 +8133,7 @@
       <c r="AN13" s="31"/>
       <c r="AO13" s="14"/>
     </row>
-    <row r="14" spans="2:59" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:59" x14ac:dyDescent="0.2">
       <c r="B14" s="7"/>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
@@ -8050,7 +8142,9 @@
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
+      <c r="J14" s="31" t="s">
+        <v>80</v>
+      </c>
       <c r="K14" s="31"/>
       <c r="L14" s="31"/>
       <c r="M14" s="31"/>
@@ -8059,20 +8153,20 @@
       <c r="P14" s="31"/>
       <c r="Q14" s="31"/>
       <c r="R14" s="31"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="31"/>
+      <c r="AC14" s="31"/>
+      <c r="AD14" s="31"/>
+      <c r="AE14" s="31"/>
+      <c r="AF14" s="31"/>
       <c r="AG14" s="31"/>
       <c r="AH14" s="31"/>
       <c r="AI14" s="31"/>
@@ -8083,7 +8177,7 @@
       <c r="AN14" s="31"/>
       <c r="AO14" s="14"/>
     </row>
-    <row r="15" spans="2:59" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
@@ -8101,20 +8195,20 @@
       <c r="P15" s="31"/>
       <c r="Q15" s="31"/>
       <c r="R15" s="31"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="31"/>
+      <c r="AC15" s="31"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="31"/>
+      <c r="AF15" s="31"/>
       <c r="AG15" s="31"/>
       <c r="AH15" s="31"/>
       <c r="AI15" s="31"/>
@@ -8125,7 +8219,7 @@
       <c r="AN15" s="31"/>
       <c r="AO15" s="14"/>
     </row>
-    <row r="16" spans="2:59" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
@@ -8134,23 +8228,27 @@
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
       <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
+      <c r="J16" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="80"/>
       <c r="N16" s="31"/>
       <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
+      <c r="P16" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q16" s="79"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="80"/>
       <c r="T16" s="31"/>
       <c r="U16" s="31"/>
       <c r="V16" s="31"/>
-      <c r="W16" s="118"/>
-      <c r="X16" s="118"/>
-      <c r="Y16" s="118"/>
-      <c r="Z16" s="118"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
       <c r="AA16" s="31"/>
       <c r="AB16" s="31"/>
       <c r="AC16" s="31"/>
@@ -8167,7 +8265,7 @@
       <c r="AN16" s="31"/>
       <c r="AO16" s="14"/>
     </row>
-    <row r="17" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
@@ -8185,7 +8283,2088 @@
       <c r="P17" s="31"/>
       <c r="Q17" s="31"/>
       <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="31"/>
+      <c r="AH17" s="31"/>
+      <c r="AI17" s="31"/>
+      <c r="AJ17" s="31"/>
+      <c r="AK17" s="31"/>
+      <c r="AL17" s="31"/>
+      <c r="AM17" s="31"/>
+      <c r="AN17" s="31"/>
+      <c r="AO17" s="14"/>
+    </row>
+    <row r="18" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B18" s="7"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="31"/>
+      <c r="AH18" s="31"/>
+      <c r="AI18" s="31"/>
+      <c r="AJ18" s="31"/>
+      <c r="AK18" s="31"/>
+      <c r="AL18" s="31"/>
+      <c r="AM18" s="31"/>
+      <c r="AN18" s="31"/>
+      <c r="AO18" s="14"/>
+    </row>
+    <row r="19" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B19" s="7"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="31"/>
+      <c r="AH19" s="31"/>
+      <c r="AI19" s="31"/>
+      <c r="AJ19" s="31"/>
+      <c r="AK19" s="31"/>
+      <c r="AL19" s="31"/>
+      <c r="AM19" s="31"/>
+      <c r="AN19" s="31"/>
+      <c r="AO19" s="14"/>
+    </row>
+    <row r="20" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B20" s="7"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="132" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="133"/>
+      <c r="L20" s="132" t="s">
+        <v>83</v>
+      </c>
+      <c r="M20" s="134"/>
+      <c r="N20" s="134"/>
+      <c r="O20" s="134"/>
+      <c r="P20" s="134"/>
+      <c r="Q20" s="134"/>
+      <c r="R20" s="134"/>
+      <c r="S20" s="133"/>
+      <c r="T20" s="132" t="s">
+        <v>84</v>
+      </c>
+      <c r="U20" s="134"/>
+      <c r="V20" s="134"/>
+      <c r="W20" s="134"/>
+      <c r="X20" s="134"/>
+      <c r="Y20" s="134"/>
+      <c r="Z20" s="134"/>
+      <c r="AA20" s="133"/>
+      <c r="AB20" s="132" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC20" s="134"/>
+      <c r="AD20" s="134"/>
+      <c r="AE20" s="134"/>
+      <c r="AF20" s="134"/>
+      <c r="AG20" s="133"/>
+      <c r="AH20" s="31"/>
+      <c r="AI20" s="31"/>
+      <c r="AJ20" s="31"/>
+      <c r="AK20" s="31"/>
+      <c r="AL20" s="31"/>
+      <c r="AM20" s="31"/>
+      <c r="AN20" s="31"/>
+      <c r="AO20" s="14"/>
+    </row>
+    <row r="21" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B21" s="7"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="132">
+        <v>1</v>
+      </c>
+      <c r="K21" s="133"/>
+      <c r="L21" s="132" t="s">
+        <v>86</v>
+      </c>
+      <c r="M21" s="134"/>
+      <c r="N21" s="134"/>
+      <c r="O21" s="134"/>
+      <c r="P21" s="134"/>
+      <c r="Q21" s="134"/>
+      <c r="R21" s="134"/>
+      <c r="S21" s="133"/>
+      <c r="T21" s="132"/>
+      <c r="U21" s="134"/>
+      <c r="V21" s="134"/>
+      <c r="W21" s="134"/>
+      <c r="X21" s="134"/>
+      <c r="Y21" s="134"/>
+      <c r="Z21" s="134"/>
+      <c r="AA21" s="133"/>
+      <c r="AB21" s="132" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC21" s="134"/>
+      <c r="AD21" s="134"/>
+      <c r="AE21" s="134"/>
+      <c r="AF21" s="134"/>
+      <c r="AG21" s="133"/>
+      <c r="AH21" s="31"/>
+      <c r="AI21" s="31"/>
+      <c r="AJ21" s="31"/>
+      <c r="AK21" s="31"/>
+      <c r="AL21" s="31"/>
+      <c r="AM21" s="31"/>
+      <c r="AN21" s="31"/>
+      <c r="AO21" s="14"/>
+    </row>
+    <row r="22" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B22" s="7"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="132">
+        <v>2</v>
+      </c>
+      <c r="K22" s="133"/>
+      <c r="L22" s="132" t="s">
+        <v>87</v>
+      </c>
+      <c r="M22" s="134"/>
+      <c r="N22" s="134"/>
+      <c r="O22" s="134"/>
+      <c r="P22" s="134"/>
+      <c r="Q22" s="134"/>
+      <c r="R22" s="134"/>
+      <c r="S22" s="133"/>
+      <c r="T22" s="132"/>
+      <c r="U22" s="134"/>
+      <c r="V22" s="134"/>
+      <c r="W22" s="134"/>
+      <c r="X22" s="134"/>
+      <c r="Y22" s="134"/>
+      <c r="Z22" s="134"/>
+      <c r="AA22" s="133"/>
+      <c r="AB22" s="132"/>
+      <c r="AC22" s="134"/>
+      <c r="AD22" s="134"/>
+      <c r="AE22" s="134"/>
+      <c r="AF22" s="134"/>
+      <c r="AG22" s="133"/>
+      <c r="AH22" s="31"/>
+      <c r="AI22" s="31"/>
+      <c r="AJ22" s="31"/>
+      <c r="AK22" s="31"/>
+      <c r="AL22" s="31"/>
+      <c r="AM22" s="31"/>
+      <c r="AN22" s="31"/>
+      <c r="AO22" s="14"/>
+    </row>
+    <row r="23" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B23" s="7"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="132">
+        <v>3</v>
+      </c>
+      <c r="K23" s="133"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="134"/>
+      <c r="N23" s="134"/>
+      <c r="O23" s="134"/>
+      <c r="P23" s="134"/>
+      <c r="Q23" s="134"/>
+      <c r="R23" s="134"/>
+      <c r="S23" s="133"/>
+      <c r="T23" s="132"/>
+      <c r="U23" s="134"/>
+      <c r="V23" s="134"/>
+      <c r="W23" s="134"/>
+      <c r="X23" s="134"/>
+      <c r="Y23" s="134"/>
+      <c r="Z23" s="134"/>
+      <c r="AA23" s="133"/>
+      <c r="AB23" s="132"/>
+      <c r="AC23" s="134"/>
+      <c r="AD23" s="134"/>
+      <c r="AE23" s="134"/>
+      <c r="AF23" s="134"/>
+      <c r="AG23" s="133"/>
+      <c r="AH23" s="31"/>
+      <c r="AI23" s="31"/>
+      <c r="AJ23" s="31"/>
+      <c r="AK23" s="31"/>
+      <c r="AL23" s="31"/>
+      <c r="AM23" s="31"/>
+      <c r="AN23" s="31"/>
+      <c r="AO23" s="14"/>
+    </row>
+    <row r="24" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B24" s="7"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="132">
+        <v>4</v>
+      </c>
+      <c r="K24" s="133"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="134"/>
+      <c r="N24" s="134"/>
+      <c r="O24" s="134"/>
+      <c r="P24" s="134"/>
+      <c r="Q24" s="134"/>
+      <c r="R24" s="134"/>
+      <c r="S24" s="133"/>
+      <c r="T24" s="132"/>
+      <c r="U24" s="134"/>
+      <c r="V24" s="134"/>
+      <c r="W24" s="134"/>
+      <c r="X24" s="134"/>
+      <c r="Y24" s="134"/>
+      <c r="Z24" s="134"/>
+      <c r="AA24" s="133"/>
+      <c r="AB24" s="132"/>
+      <c r="AC24" s="134"/>
+      <c r="AD24" s="134"/>
+      <c r="AE24" s="134"/>
+      <c r="AF24" s="134"/>
+      <c r="AG24" s="133"/>
+      <c r="AH24" s="31"/>
+      <c r="AI24" s="31"/>
+      <c r="AJ24" s="31"/>
+      <c r="AK24" s="31"/>
+      <c r="AL24" s="31"/>
+      <c r="AM24" s="31"/>
+      <c r="AN24" s="31"/>
+      <c r="AO24" s="14"/>
+    </row>
+    <row r="25" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B25" s="7"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="132">
+        <v>5</v>
+      </c>
+      <c r="K25" s="133"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="134"/>
+      <c r="N25" s="134"/>
+      <c r="O25" s="134"/>
+      <c r="P25" s="134"/>
+      <c r="Q25" s="134"/>
+      <c r="R25" s="134"/>
+      <c r="S25" s="133"/>
+      <c r="T25" s="132"/>
+      <c r="U25" s="134"/>
+      <c r="V25" s="134"/>
+      <c r="W25" s="134"/>
+      <c r="X25" s="134"/>
+      <c r="Y25" s="134"/>
+      <c r="Z25" s="134"/>
+      <c r="AA25" s="133"/>
+      <c r="AB25" s="132"/>
+      <c r="AC25" s="134"/>
+      <c r="AD25" s="134"/>
+      <c r="AE25" s="134"/>
+      <c r="AF25" s="134"/>
+      <c r="AG25" s="133"/>
+      <c r="AH25" s="31"/>
+      <c r="AI25" s="31"/>
+      <c r="AJ25" s="31"/>
+      <c r="AK25" s="31"/>
+      <c r="AL25" s="31"/>
+      <c r="AM25" s="31"/>
+      <c r="AN25" s="31"/>
+      <c r="AO25" s="14"/>
+    </row>
+    <row r="26" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B26" s="7"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="115" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26" s="116"/>
+      <c r="L26" s="116"/>
+      <c r="M26" s="116"/>
+      <c r="N26" s="116"/>
+      <c r="O26" s="116"/>
+      <c r="P26" s="116"/>
+      <c r="Q26" s="116"/>
+      <c r="R26" s="116"/>
+      <c r="S26" s="116"/>
+      <c r="T26" s="116"/>
+      <c r="U26" s="116"/>
+      <c r="V26" s="116"/>
+      <c r="W26" s="116"/>
+      <c r="X26" s="116"/>
+      <c r="Y26" s="116"/>
+      <c r="Z26" s="116"/>
+      <c r="AA26" s="116"/>
+      <c r="AB26" s="116"/>
+      <c r="AC26" s="116"/>
+      <c r="AD26" s="116"/>
+      <c r="AE26" s="116"/>
+      <c r="AF26" s="116"/>
+      <c r="AG26" s="117"/>
+      <c r="AH26" s="31"/>
+      <c r="AI26" s="31"/>
+      <c r="AJ26" s="31"/>
+      <c r="AK26" s="31"/>
+      <c r="AL26" s="31"/>
+      <c r="AM26" s="31"/>
+      <c r="AN26" s="31"/>
+      <c r="AO26" s="14"/>
+    </row>
+    <row r="27" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="7"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="135"/>
+      <c r="K27" s="135"/>
+      <c r="L27" s="135"/>
+      <c r="M27" s="135"/>
+      <c r="N27" s="135"/>
+      <c r="O27" s="135"/>
+      <c r="P27" s="135"/>
+      <c r="Q27" s="135"/>
+      <c r="R27" s="135"/>
+      <c r="S27" s="135"/>
+      <c r="T27" s="135"/>
+      <c r="U27" s="135"/>
+      <c r="V27" s="135"/>
+      <c r="W27" s="135"/>
+      <c r="X27" s="135"/>
+      <c r="Y27" s="135"/>
+      <c r="Z27" s="135"/>
+      <c r="AA27" s="135"/>
+      <c r="AB27" s="135"/>
+      <c r="AC27" s="135"/>
+      <c r="AD27" s="135"/>
+      <c r="AE27" s="135"/>
+      <c r="AF27" s="135"/>
+      <c r="AG27" s="135"/>
+      <c r="AH27" s="31"/>
+      <c r="AI27" s="31"/>
+      <c r="AJ27" s="31"/>
+      <c r="AK27" s="31"/>
+      <c r="AL27" s="31"/>
+      <c r="AM27" s="31"/>
+      <c r="AN27" s="31"/>
+      <c r="AO27" s="14"/>
+    </row>
+    <row r="28" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="135"/>
+      <c r="O28" s="135"/>
+      <c r="P28" s="135"/>
+      <c r="Q28" s="135"/>
+      <c r="R28" s="135"/>
+      <c r="S28" s="135"/>
+      <c r="T28" s="135"/>
+      <c r="U28" s="135"/>
+      <c r="V28" s="135"/>
+      <c r="W28" s="135"/>
+      <c r="X28" s="135"/>
+      <c r="Y28" s="135"/>
+      <c r="Z28" s="135"/>
+      <c r="AA28" s="135"/>
+      <c r="AB28" s="135"/>
+      <c r="AC28" s="135"/>
+      <c r="AD28" s="135"/>
+      <c r="AE28" s="135"/>
+      <c r="AF28" s="135"/>
+      <c r="AG28" s="135"/>
+      <c r="AH28" s="31"/>
+      <c r="AI28" s="31"/>
+      <c r="AJ28" s="31"/>
+      <c r="AK28" s="31"/>
+      <c r="AL28" s="31"/>
+      <c r="AM28" s="31"/>
+      <c r="AN28" s="31"/>
+      <c r="AO28" s="14"/>
+    </row>
+    <row r="29" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B29" s="7"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
+      <c r="AA29" s="31"/>
+      <c r="AB29" s="31"/>
+      <c r="AC29" s="31"/>
+      <c r="AD29" s="31"/>
+      <c r="AE29" s="31"/>
+      <c r="AF29" s="31"/>
+      <c r="AG29" s="31"/>
+      <c r="AH29" s="31"/>
+      <c r="AI29" s="31"/>
+      <c r="AJ29" s="31"/>
+      <c r="AK29" s="31"/>
+      <c r="AL29" s="31"/>
+      <c r="AM29" s="31"/>
+      <c r="AN29" s="31"/>
+      <c r="AO29" s="14"/>
+    </row>
+    <row r="30" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B30" s="7"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="31"/>
+      <c r="AB30" s="31"/>
+      <c r="AC30" s="31"/>
+      <c r="AD30" s="31"/>
+      <c r="AE30" s="31"/>
+      <c r="AF30" s="31"/>
+      <c r="AG30" s="31"/>
+      <c r="AH30" s="31"/>
+      <c r="AI30" s="31"/>
+      <c r="AJ30" s="31"/>
+      <c r="AK30" s="31"/>
+      <c r="AL30" s="31"/>
+      <c r="AM30" s="31"/>
+      <c r="AN30" s="31"/>
+      <c r="AO30" s="14"/>
+    </row>
+    <row r="31" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B31" s="7"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="31"/>
+      <c r="Y31" s="31"/>
+      <c r="Z31" s="31"/>
+      <c r="AA31" s="31"/>
+      <c r="AB31" s="31"/>
+      <c r="AC31" s="31"/>
+      <c r="AD31" s="31"/>
+      <c r="AE31" s="31"/>
+      <c r="AF31" s="31"/>
+      <c r="AG31" s="31"/>
+      <c r="AH31" s="31"/>
+      <c r="AI31" s="31"/>
+      <c r="AJ31" s="31"/>
+      <c r="AK31" s="31"/>
+      <c r="AL31" s="31"/>
+      <c r="AM31" s="31"/>
+      <c r="AN31" s="31"/>
+      <c r="AO31" s="14"/>
+    </row>
+    <row r="32" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B32" s="7"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="U32" s="47"/>
+      <c r="V32" s="47"/>
+      <c r="W32" s="47"/>
+      <c r="X32" s="47"/>
+      <c r="Y32" s="48"/>
+      <c r="Z32" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA32" s="48"/>
+      <c r="AB32" s="31"/>
+      <c r="AC32" s="31"/>
+      <c r="AD32" s="31"/>
+      <c r="AE32" s="31"/>
+      <c r="AF32" s="31"/>
+      <c r="AG32" s="31"/>
+      <c r="AH32" s="31"/>
+      <c r="AI32" s="31"/>
+      <c r="AJ32" s="31"/>
+      <c r="AK32" s="31"/>
+      <c r="AL32" s="31"/>
+      <c r="AM32" s="31"/>
+      <c r="AN32" s="31"/>
+      <c r="AO32" s="14"/>
+    </row>
+    <row r="33" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B33" s="7"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="53"/>
+      <c r="T33" s="52"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="31"/>
+      <c r="W33" s="31"/>
+      <c r="X33" s="31"/>
+      <c r="Y33" s="53"/>
+      <c r="Z33" s="52"/>
+      <c r="AA33" s="53"/>
+      <c r="AB33" s="31"/>
+      <c r="AC33" s="31"/>
+      <c r="AD33" s="31"/>
+      <c r="AE33" s="31"/>
+      <c r="AF33" s="31"/>
+      <c r="AG33" s="31"/>
+      <c r="AH33" s="31"/>
+      <c r="AI33" s="31"/>
+      <c r="AJ33" s="31"/>
+      <c r="AK33" s="31"/>
+      <c r="AL33" s="31"/>
+      <c r="AM33" s="31"/>
+      <c r="AN33" s="31"/>
+      <c r="AO33" s="14"/>
+    </row>
+    <row r="34" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B34" s="7"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="46"/>
+      <c r="U34" s="47"/>
+      <c r="V34" s="47"/>
+      <c r="W34" s="47"/>
+      <c r="X34" s="47"/>
+      <c r="Y34" s="48"/>
+      <c r="Z34" s="46"/>
+      <c r="AA34" s="48"/>
+      <c r="AB34" s="31"/>
+      <c r="AC34" s="31"/>
+      <c r="AD34" s="31"/>
+      <c r="AE34" s="31"/>
+      <c r="AF34" s="31"/>
+      <c r="AG34" s="31"/>
+      <c r="AH34" s="31"/>
+      <c r="AI34" s="31"/>
+      <c r="AJ34" s="31"/>
+      <c r="AK34" s="31"/>
+      <c r="AL34" s="31"/>
+      <c r="AM34" s="31"/>
+      <c r="AN34" s="31"/>
+      <c r="AO34" s="14"/>
+    </row>
+    <row r="35" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B35" s="7"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="47"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="47"/>
+      <c r="S35" s="48"/>
+      <c r="T35" s="46"/>
+      <c r="U35" s="47"/>
+      <c r="V35" s="47"/>
+      <c r="W35" s="47"/>
+      <c r="X35" s="47"/>
+      <c r="Y35" s="48"/>
+      <c r="Z35" s="46"/>
+      <c r="AA35" s="48"/>
+      <c r="AB35" s="31"/>
+      <c r="AC35" s="31"/>
+      <c r="AD35" s="31"/>
+      <c r="AE35" s="31"/>
+      <c r="AF35" s="31"/>
+      <c r="AG35" s="31"/>
+      <c r="AH35" s="31"/>
+      <c r="AI35" s="31"/>
+      <c r="AJ35" s="31"/>
+      <c r="AK35" s="31"/>
+      <c r="AL35" s="31"/>
+      <c r="AM35" s="31"/>
+      <c r="AN35" s="31"/>
+      <c r="AO35" s="14"/>
+    </row>
+    <row r="36" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B36" s="15"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="129" t="s">
+        <v>94</v>
+      </c>
+      <c r="K36" s="130"/>
+      <c r="L36" s="130"/>
+      <c r="M36" s="131"/>
+      <c r="N36" s="129"/>
+      <c r="O36" s="130"/>
+      <c r="P36" s="130"/>
+      <c r="Q36" s="130"/>
+      <c r="R36" s="130"/>
+      <c r="S36" s="131"/>
+      <c r="T36" s="129"/>
+      <c r="U36" s="130"/>
+      <c r="V36" s="130"/>
+      <c r="W36" s="130"/>
+      <c r="X36" s="130"/>
+      <c r="Y36" s="131"/>
+      <c r="Z36" s="129"/>
+      <c r="AA36" s="131"/>
+      <c r="AB36" s="31"/>
+      <c r="AC36" s="31"/>
+      <c r="AD36" s="31"/>
+      <c r="AE36" s="31"/>
+      <c r="AF36" s="31"/>
+      <c r="AG36" s="31"/>
+      <c r="AH36" s="31"/>
+      <c r="AI36" s="31"/>
+      <c r="AJ36" s="31"/>
+      <c r="AK36" s="31"/>
+      <c r="AL36" s="31"/>
+      <c r="AM36" s="31"/>
+      <c r="AN36" s="31"/>
+      <c r="AO36" s="14"/>
+    </row>
+    <row r="37" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B37" s="15"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="31"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="31"/>
+      <c r="X37" s="31"/>
+      <c r="Y37" s="31"/>
+      <c r="Z37" s="31"/>
+      <c r="AA37" s="31"/>
+      <c r="AB37" s="31"/>
+      <c r="AC37" s="31"/>
+      <c r="AD37" s="31"/>
+      <c r="AE37" s="31"/>
+      <c r="AF37" s="31"/>
+      <c r="AG37" s="31"/>
+      <c r="AH37" s="31"/>
+      <c r="AI37" s="31"/>
+      <c r="AJ37" s="31"/>
+      <c r="AK37" s="31"/>
+      <c r="AL37" s="31"/>
+      <c r="AM37" s="31"/>
+      <c r="AN37" s="31"/>
+      <c r="AO37" s="14"/>
+    </row>
+    <row r="38" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="15"/>
+      <c r="AO38" s="14"/>
+    </row>
+    <row r="39" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B39" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
+      <c r="Y39" s="18"/>
+      <c r="Z39" s="18"/>
+      <c r="AA39" s="18"/>
+      <c r="AB39" s="18"/>
+      <c r="AC39" s="18"/>
+      <c r="AD39" s="18"/>
+      <c r="AE39" s="18"/>
+      <c r="AF39" s="18"/>
+      <c r="AG39" s="18"/>
+      <c r="AH39" s="18"/>
+      <c r="AI39" s="18"/>
+      <c r="AJ39" s="18"/>
+      <c r="AK39" s="18"/>
+      <c r="AL39" s="18"/>
+      <c r="AM39" s="18"/>
+      <c r="AN39" s="18"/>
+      <c r="AO39" s="20"/>
+    </row>
+    <row r="40" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="23"/>
+      <c r="T40" s="23"/>
+      <c r="U40" s="23"/>
+      <c r="V40" s="23"/>
+      <c r="W40" s="23"/>
+      <c r="X40" s="23"/>
+      <c r="Y40" s="23"/>
+      <c r="Z40" s="23"/>
+      <c r="AA40" s="23"/>
+      <c r="AB40" s="23"/>
+      <c r="AC40" s="23"/>
+      <c r="AD40" s="23"/>
+      <c r="AE40" s="23"/>
+      <c r="AF40" s="23"/>
+      <c r="AG40" s="23"/>
+      <c r="AH40" s="23"/>
+      <c r="AI40" s="23"/>
+      <c r="AJ40" s="23"/>
+      <c r="AK40" s="23"/>
+      <c r="AL40" s="23"/>
+      <c r="AM40" s="23"/>
+      <c r="AN40" s="23"/>
+      <c r="AO40" s="24"/>
+    </row>
+    <row r="43" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B44" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26"/>
+      <c r="S44" s="26"/>
+      <c r="T44" s="26"/>
+      <c r="U44" s="26"/>
+      <c r="V44" s="26"/>
+      <c r="W44" s="26"/>
+      <c r="X44" s="26"/>
+      <c r="Y44" s="26"/>
+      <c r="Z44" s="26"/>
+      <c r="AA44" s="26"/>
+      <c r="AB44" s="26"/>
+      <c r="AC44" s="26"/>
+      <c r="AD44" s="26"/>
+      <c r="AE44" s="26"/>
+      <c r="AF44" s="26"/>
+      <c r="AG44" s="26"/>
+      <c r="AH44" s="26"/>
+      <c r="AI44" s="26"/>
+      <c r="AJ44" s="26"/>
+      <c r="AK44" s="26"/>
+      <c r="AL44" s="26"/>
+      <c r="AM44" s="26"/>
+      <c r="AN44" s="26"/>
+      <c r="AO44" s="27"/>
+    </row>
+    <row r="45" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B45" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO45" s="14"/>
+    </row>
+    <row r="46" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B46" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO46" s="14"/>
+    </row>
+    <row r="47" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B47" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO47" s="14"/>
+    </row>
+    <row r="48" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B48" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO48" s="14"/>
+    </row>
+    <row r="49" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="28"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="23"/>
+      <c r="Q49" s="23"/>
+      <c r="R49" s="23"/>
+      <c r="S49" s="23"/>
+      <c r="T49" s="23"/>
+      <c r="U49" s="23"/>
+      <c r="V49" s="23"/>
+      <c r="W49" s="23"/>
+      <c r="X49" s="23"/>
+      <c r="Y49" s="23"/>
+      <c r="Z49" s="23"/>
+      <c r="AA49" s="23"/>
+      <c r="AB49" s="23"/>
+      <c r="AC49" s="23"/>
+      <c r="AD49" s="23"/>
+      <c r="AE49" s="23"/>
+      <c r="AF49" s="23"/>
+      <c r="AG49" s="23"/>
+      <c r="AH49" s="23"/>
+      <c r="AI49" s="23"/>
+      <c r="AJ49" s="23"/>
+      <c r="AK49" s="23"/>
+      <c r="AL49" s="23"/>
+      <c r="AM49" s="23"/>
+      <c r="AN49" s="23"/>
+      <c r="AO49" s="24"/>
+    </row>
+    <row r="59" spans="2:57" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="T59" s="29"/>
+    </row>
+    <row r="60" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="T60" s="30"/>
+      <c r="U60" s="30"/>
+      <c r="V60" s="30"/>
+      <c r="W60" s="30"/>
+      <c r="X60" s="30"/>
+      <c r="Y60" s="30"/>
+      <c r="Z60" s="30"/>
+      <c r="AA60" s="30"/>
+      <c r="AB60" s="30"/>
+      <c r="AC60" s="30"/>
+      <c r="AD60" s="30"/>
+      <c r="AE60" s="30"/>
+      <c r="AF60" s="30"/>
+      <c r="AG60" s="30"/>
+      <c r="AH60" s="30"/>
+      <c r="AI60" s="30"/>
+      <c r="AJ60" s="30"/>
+      <c r="AK60" s="30"/>
+      <c r="AL60" s="30"/>
+      <c r="AM60" s="30"/>
+      <c r="AN60" s="30"/>
+      <c r="AO60" s="30"/>
+      <c r="AP60" s="30"/>
+      <c r="AQ60" s="30"/>
+      <c r="AR60" s="30"/>
+      <c r="AS60" s="30"/>
+      <c r="AT60" s="30"/>
+      <c r="AU60" s="30"/>
+      <c r="AV60" s="30"/>
+      <c r="AW60" s="30"/>
+      <c r="AX60" s="30"/>
+      <c r="AY60" s="30"/>
+      <c r="AZ60" s="30"/>
+      <c r="BA60" s="30"/>
+      <c r="BB60" s="30"/>
+      <c r="BC60" s="30"/>
+      <c r="BD60" s="30"/>
+      <c r="BE60" s="30"/>
+    </row>
+    <row r="61" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="T61" s="30"/>
+      <c r="U61" s="30"/>
+      <c r="V61" s="30"/>
+      <c r="W61" s="30"/>
+      <c r="X61" s="30"/>
+      <c r="Y61" s="30"/>
+      <c r="Z61" s="30"/>
+      <c r="AA61" s="30"/>
+      <c r="AB61" s="30"/>
+      <c r="AC61" s="30"/>
+      <c r="AD61" s="30"/>
+      <c r="AE61" s="30"/>
+      <c r="AF61" s="30"/>
+      <c r="AG61" s="30"/>
+      <c r="AH61" s="30"/>
+      <c r="AI61" s="30"/>
+      <c r="AJ61" s="30"/>
+      <c r="AK61" s="30"/>
+      <c r="AL61" s="30"/>
+      <c r="AM61" s="30"/>
+      <c r="AN61" s="30"/>
+      <c r="AO61" s="30"/>
+      <c r="AP61" s="30"/>
+      <c r="AQ61" s="30"/>
+      <c r="AR61" s="30"/>
+      <c r="AS61" s="30"/>
+      <c r="AT61" s="30"/>
+      <c r="AU61" s="30"/>
+      <c r="AV61" s="30"/>
+      <c r="AW61" s="30"/>
+      <c r="AX61" s="30"/>
+      <c r="AY61" s="30"/>
+      <c r="AZ61" s="30"/>
+      <c r="BA61" s="30"/>
+      <c r="BB61" s="30"/>
+      <c r="BC61" s="30"/>
+      <c r="BD61" s="30"/>
+      <c r="BE61" s="30"/>
+    </row>
+    <row r="62" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="T62" s="30"/>
+      <c r="U62" s="30"/>
+      <c r="V62" s="30"/>
+      <c r="W62" s="30"/>
+      <c r="X62" s="30"/>
+      <c r="Y62" s="30"/>
+      <c r="Z62" s="30"/>
+      <c r="AA62" s="30"/>
+      <c r="AB62" s="30"/>
+      <c r="AC62" s="30"/>
+      <c r="AD62" s="30"/>
+      <c r="AE62" s="30"/>
+      <c r="AF62" s="30"/>
+      <c r="AG62" s="30"/>
+      <c r="AH62" s="30"/>
+      <c r="AI62" s="30"/>
+      <c r="AJ62" s="30"/>
+      <c r="AK62" s="30"/>
+      <c r="AL62" s="30"/>
+      <c r="AM62" s="30"/>
+      <c r="AN62" s="30"/>
+      <c r="AO62" s="30"/>
+      <c r="AP62" s="30"/>
+      <c r="AQ62" s="30"/>
+      <c r="AR62" s="30"/>
+      <c r="AS62" s="30"/>
+      <c r="AT62" s="30"/>
+      <c r="AU62" s="30"/>
+      <c r="AV62" s="30"/>
+      <c r="AW62" s="30"/>
+      <c r="AX62" s="30"/>
+      <c r="AY62" s="30"/>
+      <c r="AZ62" s="30"/>
+      <c r="BA62" s="30"/>
+      <c r="BB62" s="30"/>
+      <c r="BC62" s="30"/>
+      <c r="BD62" s="30"/>
+      <c r="BE62" s="30"/>
+    </row>
+    <row r="63" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="T63" s="30"/>
+      <c r="U63" s="30"/>
+      <c r="V63" s="30"/>
+      <c r="W63" s="30"/>
+      <c r="X63" s="30"/>
+      <c r="Y63" s="30"/>
+      <c r="Z63" s="30"/>
+      <c r="AA63" s="30"/>
+      <c r="AB63" s="30"/>
+      <c r="AC63" s="30"/>
+      <c r="AD63" s="30"/>
+      <c r="AE63" s="30"/>
+      <c r="AF63" s="30"/>
+      <c r="AG63" s="30"/>
+      <c r="AH63" s="30"/>
+      <c r="AI63" s="30"/>
+      <c r="AJ63" s="30"/>
+      <c r="AK63" s="30"/>
+      <c r="AL63" s="30"/>
+      <c r="AM63" s="30"/>
+      <c r="AN63" s="30"/>
+      <c r="AO63" s="30"/>
+      <c r="AP63" s="30"/>
+      <c r="AQ63" s="30"/>
+      <c r="AR63" s="30"/>
+      <c r="AS63" s="30"/>
+      <c r="AT63" s="30"/>
+      <c r="AU63" s="30"/>
+      <c r="AV63" s="30"/>
+      <c r="AW63" s="30"/>
+      <c r="AX63" s="30"/>
+      <c r="AY63" s="30"/>
+      <c r="AZ63" s="30"/>
+      <c r="BA63" s="30"/>
+      <c r="BB63" s="30"/>
+      <c r="BC63" s="30"/>
+      <c r="BD63" s="30"/>
+      <c r="BE63" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="38">
+    <mergeCell ref="AB25:AG25"/>
+    <mergeCell ref="J26:AG26"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="AB20:AG20"/>
+    <mergeCell ref="AB21:AG21"/>
+    <mergeCell ref="AB22:AG22"/>
+    <mergeCell ref="AB23:AG23"/>
+    <mergeCell ref="AB24:AG24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L20:S20"/>
+    <mergeCell ref="L21:S21"/>
+    <mergeCell ref="T21:AA21"/>
+    <mergeCell ref="L22:S22"/>
+    <mergeCell ref="T22:AA22"/>
+    <mergeCell ref="L23:S23"/>
+    <mergeCell ref="T23:AA23"/>
+    <mergeCell ref="L24:S24"/>
+    <mergeCell ref="T24:AA24"/>
+    <mergeCell ref="L25:S25"/>
+    <mergeCell ref="T25:AA25"/>
+    <mergeCell ref="T20:AA20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="Z11:AC11"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:AE4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="S6:X6"/>
+    <mergeCell ref="Y6:AD6"/>
+    <mergeCell ref="AE6:AG6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E6:I6" location="Sheet1!A1" display="Quản lý lái xe"/>
+    <hyperlink ref="J6:M6" location="Sheet1!A1" display="Tạo quảng cáo "/>
+    <hyperlink ref="N6:R6" location="Sheet1!A1" display="Tạo khuyến mãi"/>
+    <hyperlink ref="S6:X6" location="Sheet1!A1" display="Thông tin doanh nghiệp"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:BG48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="3.75" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="67"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="6"/>
+      <c r="AY2" s="6"/>
+      <c r="AZ2" s="6"/>
+      <c r="BA2" s="6"/>
+      <c r="BB2" s="6"/>
+      <c r="BC2" s="6"/>
+      <c r="BD2" s="6"/>
+      <c r="BE2" s="6"/>
+      <c r="BF2" s="6"/>
+      <c r="BG2" s="6"/>
+    </row>
+    <row r="3" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="70"/>
+      <c r="AE3" s="71"/>
+      <c r="AF3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="6"/>
+      <c r="AY3" s="6"/>
+      <c r="AZ3" s="6"/>
+      <c r="BA3" s="6"/>
+      <c r="BB3" s="6"/>
+      <c r="BC3" s="6"/>
+      <c r="BD3" s="6"/>
+      <c r="BE3" s="6"/>
+      <c r="BF3" s="6"/>
+      <c r="BG3" s="6"/>
+    </row>
+    <row r="4" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="73"/>
+      <c r="AA4" s="73"/>
+      <c r="AB4" s="73"/>
+      <c r="AC4" s="73"/>
+      <c r="AD4" s="73"/>
+      <c r="AE4" s="74"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+    </row>
+    <row r="5" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
+    </row>
+    <row r="6" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="111" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="112" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z6" s="113"/>
+      <c r="AA6" s="113"/>
+      <c r="AB6" s="113"/>
+      <c r="AC6" s="113"/>
+      <c r="AD6" s="114"/>
+      <c r="AE6" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF6" s="64"/>
+      <c r="AG6" s="65"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="13"/>
+    </row>
+    <row r="7" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AO7" s="14"/>
+    </row>
+    <row r="8" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="31"/>
+      <c r="AB8" s="31"/>
+      <c r="AC8" s="31"/>
+      <c r="AD8" s="31"/>
+      <c r="AE8" s="31"/>
+      <c r="AF8" s="31"/>
+      <c r="AG8" s="31"/>
+      <c r="AH8" s="31"/>
+      <c r="AI8" s="31"/>
+      <c r="AJ8" s="31"/>
+      <c r="AK8" s="31"/>
+      <c r="AL8" s="31"/>
+      <c r="AM8" s="31"/>
+      <c r="AN8" s="31"/>
+      <c r="AO8" s="14"/>
+    </row>
+    <row r="9" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31"/>
+      <c r="AA9" s="31"/>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="41"/>
+      <c r="AE9" s="41"/>
+      <c r="AF9" s="41"/>
+      <c r="AG9" s="41"/>
+      <c r="AH9" s="41"/>
+      <c r="AI9" s="41"/>
+      <c r="AJ9" s="41"/>
+      <c r="AK9" s="42"/>
+      <c r="AL9" s="31"/>
+      <c r="AM9" s="31"/>
+      <c r="AN9" s="31"/>
+      <c r="AO9" s="14"/>
+    </row>
+    <row r="10" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="41"/>
+      <c r="AE10" s="41"/>
+      <c r="AF10" s="41"/>
+      <c r="AG10" s="41"/>
+      <c r="AH10" s="41"/>
+      <c r="AI10" s="41"/>
+      <c r="AJ10" s="41"/>
+      <c r="AK10" s="42"/>
+      <c r="AL10" s="31"/>
+      <c r="AM10" s="31"/>
+      <c r="AN10" s="31"/>
+      <c r="AO10" s="14"/>
+    </row>
+    <row r="11" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="41"/>
+      <c r="AE11" s="41"/>
+      <c r="AF11" s="41"/>
+      <c r="AG11" s="41"/>
+      <c r="AH11" s="41"/>
+      <c r="AI11" s="41"/>
+      <c r="AJ11" s="41"/>
+      <c r="AK11" s="42"/>
+      <c r="AL11" s="31"/>
+      <c r="AM11" s="31"/>
+      <c r="AN11" s="31"/>
+      <c r="AO11" s="14"/>
+    </row>
+    <row r="12" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="31"/>
+      <c r="AB12" s="31"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="41"/>
+      <c r="AE12" s="41"/>
+      <c r="AF12" s="41"/>
+      <c r="AG12" s="41"/>
+      <c r="AH12" s="41"/>
+      <c r="AI12" s="41"/>
+      <c r="AJ12" s="41"/>
+      <c r="AK12" s="42"/>
+      <c r="AL12" s="31"/>
+      <c r="AM12" s="31"/>
+      <c r="AN12" s="31"/>
+      <c r="AO12" s="14"/>
+    </row>
+    <row r="13" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="31"/>
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="41"/>
+      <c r="AE13" s="41"/>
+      <c r="AF13" s="41"/>
+      <c r="AG13" s="41"/>
+      <c r="AH13" s="41"/>
+      <c r="AI13" s="41"/>
+      <c r="AJ13" s="41"/>
+      <c r="AK13" s="42"/>
+      <c r="AL13" s="31"/>
+      <c r="AM13" s="31"/>
+      <c r="AN13" s="31"/>
+      <c r="AO13" s="14"/>
+    </row>
+    <row r="14" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="31"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="41"/>
+      <c r="AE14" s="41"/>
+      <c r="AF14" s="41"/>
+      <c r="AG14" s="41"/>
+      <c r="AH14" s="41"/>
+      <c r="AI14" s="41"/>
+      <c r="AJ14" s="41"/>
+      <c r="AK14" s="42"/>
+      <c r="AL14" s="31"/>
+      <c r="AM14" s="31"/>
+      <c r="AN14" s="31"/>
+      <c r="AO14" s="14"/>
+    </row>
+    <row r="15" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="31"/>
+      <c r="AC15" s="31"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="31"/>
+      <c r="AF15" s="31"/>
+      <c r="AG15" s="31"/>
+      <c r="AH15" s="31"/>
+      <c r="AI15" s="31"/>
+      <c r="AJ15" s="31"/>
+      <c r="AK15" s="31"/>
+      <c r="AL15" s="31"/>
+      <c r="AM15" s="31"/>
+      <c r="AN15" s="31"/>
+      <c r="AO15" s="14"/>
+    </row>
+    <row r="16" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="61"/>
+      <c r="Z16" s="62"/>
+      <c r="AA16" s="31"/>
+      <c r="AB16" s="31"/>
+      <c r="AC16" s="31"/>
+      <c r="AD16" s="31"/>
+      <c r="AE16" s="31"/>
+      <c r="AF16" s="31"/>
+      <c r="AG16" s="31"/>
+      <c r="AH16" s="31"/>
+      <c r="AI16" s="31"/>
+      <c r="AJ16" s="31"/>
+      <c r="AK16" s="31"/>
+      <c r="AL16" s="31"/>
+      <c r="AM16" s="31"/>
+      <c r="AN16" s="31"/>
+      <c r="AO16" s="14"/>
+    </row>
+    <row r="17" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B17" s="7"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="36"/>
       <c r="T17" s="31"/>
       <c r="U17" s="31"/>
       <c r="V17" s="31"/>
@@ -8209,11 +10388,11 @@
       <c r="AN17" s="31"/>
       <c r="AO17" s="14"/>
     </row>
-    <row r="18" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
+      <c r="E18" s="35"/>
       <c r="F18" s="31"/>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
@@ -8227,7 +10406,7 @@
       <c r="P18" s="31"/>
       <c r="Q18" s="31"/>
       <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
+      <c r="S18" s="36"/>
       <c r="T18" s="31"/>
       <c r="U18" s="31"/>
       <c r="V18" s="31"/>
@@ -8251,11 +10430,11 @@
       <c r="AN18" s="31"/>
       <c r="AO18" s="14"/>
     </row>
-    <row r="19" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B19" s="7"/>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
+      <c r="E19" s="35"/>
       <c r="F19" s="31"/>
       <c r="G19" s="31"/>
       <c r="H19" s="31"/>
@@ -8269,7 +10448,7 @@
       <c r="P19" s="31"/>
       <c r="Q19" s="31"/>
       <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
+      <c r="S19" s="36"/>
       <c r="T19" s="31"/>
       <c r="U19" s="31"/>
       <c r="V19" s="31"/>
@@ -8293,11 +10472,11 @@
       <c r="AN19" s="31"/>
       <c r="AO19" s="14"/>
     </row>
-    <row r="20" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B20" s="7"/>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
+      <c r="E20" s="35"/>
       <c r="F20" s="31"/>
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
@@ -8311,7 +10490,7 @@
       <c r="P20" s="31"/>
       <c r="Q20" s="31"/>
       <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
+      <c r="S20" s="36"/>
       <c r="T20" s="31"/>
       <c r="U20" s="31"/>
       <c r="V20" s="31"/>
@@ -8335,11 +10514,11 @@
       <c r="AN20" s="31"/>
       <c r="AO20" s="14"/>
     </row>
-    <row r="21" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B21" s="15"/>
       <c r="C21" s="31"/>
       <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
+      <c r="E21" s="35"/>
       <c r="F21" s="31"/>
       <c r="G21" s="31"/>
       <c r="H21" s="31"/>
@@ -8353,7 +10532,7 @@
       <c r="P21" s="31"/>
       <c r="Q21" s="31"/>
       <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
+      <c r="S21" s="36"/>
       <c r="T21" s="31"/>
       <c r="U21" s="31"/>
       <c r="V21" s="31"/>
@@ -8377,25 +10556,25 @@
       <c r="AN21" s="31"/>
       <c r="AO21" s="14"/>
     </row>
-    <row r="22" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="15"/>
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="39"/>
       <c r="T22" s="31"/>
       <c r="U22" s="31"/>
       <c r="V22" s="31"/>
@@ -8419,11 +10598,11 @@
       <c r="AN22" s="31"/>
       <c r="AO22" s="14"/>
     </row>
-    <row r="23" spans="2:41" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="AO23" s="14"/>
     </row>
-    <row r="24" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B24" s="16" t="s">
         <v>5</v>
       </c>
@@ -8467,7 +10646,7 @@
       <c r="AN24" s="18"/>
       <c r="AO24" s="20"/>
     </row>
-    <row r="25" spans="2:41" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="21" t="s">
         <v>6</v>
       </c>
@@ -8511,8 +10690,8 @@
       <c r="AN25" s="23"/>
       <c r="AO25" s="24"/>
     </row>
-    <row r="28" spans="2:41" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B29" s="25" t="s">
         <v>7</v>
       </c>
@@ -8556,31 +10735,31 @@
       <c r="AN29" s="26"/>
       <c r="AO29" s="27"/>
     </row>
-    <row r="30" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B30" s="15" t="s">
         <v>15</v>
       </c>
       <c r="AO30" s="14"/>
     </row>
-    <row r="31" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B31" s="15" t="s">
         <v>16</v>
       </c>
       <c r="AO31" s="14"/>
     </row>
-    <row r="32" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B32" s="15" t="s">
         <v>24</v>
       </c>
       <c r="AO32" s="14"/>
     </row>
-    <row r="33" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B33" s="15" t="s">
         <v>25</v>
       </c>
       <c r="AO33" s="14"/>
     </row>
-    <row r="34" spans="2:57" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="28"/>
       <c r="C34" s="23"/>
       <c r="D34" s="23"/>
@@ -8622,10 +10801,10 @@
       <c r="AN34" s="23"/>
       <c r="AO34" s="24"/>
     </row>
-    <row r="44" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="T44" s="29"/>
     </row>
-    <row r="45" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:57" x14ac:dyDescent="0.2">
       <c r="T45" s="30"/>
       <c r="U45" s="30"/>
       <c r="V45" s="30"/>
@@ -8665,7 +10844,7 @@
       <c r="BD45" s="30"/>
       <c r="BE45" s="30"/>
     </row>
-    <row r="46" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:57" x14ac:dyDescent="0.2">
       <c r="T46" s="30"/>
       <c r="U46" s="30"/>
       <c r="V46" s="30"/>
@@ -8705,7 +10884,7 @@
       <c r="BD46" s="30"/>
       <c r="BE46" s="30"/>
     </row>
-    <row r="47" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:57" x14ac:dyDescent="0.2">
       <c r="T47" s="30"/>
       <c r="U47" s="30"/>
       <c r="V47" s="30"/>
@@ -8745,7 +10924,7 @@
       <c r="BD47" s="30"/>
       <c r="BE47" s="30"/>
     </row>
-    <row r="48" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:57" x14ac:dyDescent="0.2">
       <c r="T48" s="30"/>
       <c r="U48" s="30"/>
       <c r="V48" s="30"/>
@@ -8787,7 +10966,7 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="Z11:AC11"/>
+    <mergeCell ref="W16:Z16"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="E2:AE4"/>
     <mergeCell ref="B6:D6"/>
@@ -8808,18 +10987,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
@@ -8828,7 +10995,7 @@
       <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
